--- a/需求响应/data/EDBase.xlsx
+++ b/需求响应/data/EDBase.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D24AA42-E3B9-41B4-9EBF-1845D81D53D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317B9B02-F8CE-4870-86AE-149BFED1F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="3060" windowWidth="21435" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>t0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,13 +115,517 @@
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t24</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t29</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t31</t>
+  </si>
+  <si>
+    <t>t32</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t36</t>
+  </si>
+  <si>
+    <t>t37</t>
+  </si>
+  <si>
+    <t>t38</t>
+  </si>
+  <si>
+    <t>t39</t>
+  </si>
+  <si>
+    <t>t40</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>t42</t>
+  </si>
+  <si>
+    <t>t43</t>
+  </si>
+  <si>
+    <t>t44</t>
+  </si>
+  <si>
+    <t>t45</t>
+  </si>
+  <si>
+    <t>t46</t>
+  </si>
+  <si>
+    <t>t47</t>
+  </si>
+  <si>
+    <t>t48</t>
+  </si>
+  <si>
+    <t>t49</t>
+  </si>
+  <si>
+    <t>t50</t>
+  </si>
+  <si>
+    <t>t51</t>
+  </si>
+  <si>
+    <t>t52</t>
+  </si>
+  <si>
+    <t>t53</t>
+  </si>
+  <si>
+    <t>t54</t>
+  </si>
+  <si>
+    <t>t55</t>
+  </si>
+  <si>
+    <t>t56</t>
+  </si>
+  <si>
+    <t>t57</t>
+  </si>
+  <si>
+    <t>t58</t>
+  </si>
+  <si>
+    <t>t59</t>
+  </si>
+  <si>
+    <t>t60</t>
+  </si>
+  <si>
+    <t>t61</t>
+  </si>
+  <si>
+    <t>t62</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t64</t>
+  </si>
+  <si>
+    <t>t65</t>
+  </si>
+  <si>
+    <t>t66</t>
+  </si>
+  <si>
+    <t>t67</t>
+  </si>
+  <si>
+    <t>t68</t>
+  </si>
+  <si>
+    <t>t69</t>
+  </si>
+  <si>
+    <t>t70</t>
+  </si>
+  <si>
+    <t>t71</t>
+  </si>
+  <si>
+    <t>t72</t>
+  </si>
+  <si>
+    <t>t73</t>
+  </si>
+  <si>
+    <t>t74</t>
+  </si>
+  <si>
+    <t>t75</t>
+  </si>
+  <si>
+    <t>t76</t>
+  </si>
+  <si>
+    <t>t77</t>
+  </si>
+  <si>
+    <t>t78</t>
+  </si>
+  <si>
+    <t>t79</t>
+  </si>
+  <si>
+    <t>t80</t>
+  </si>
+  <si>
+    <t>t81</t>
+  </si>
+  <si>
+    <t>t82</t>
+  </si>
+  <si>
+    <t>t83</t>
+  </si>
+  <si>
+    <t>t84</t>
+  </si>
+  <si>
+    <t>t85</t>
+  </si>
+  <si>
+    <t>t86</t>
+  </si>
+  <si>
+    <t>t87</t>
+  </si>
+  <si>
+    <t>t88</t>
+  </si>
+  <si>
+    <t>t89</t>
+  </si>
+  <si>
+    <t>t90</t>
+  </si>
+  <si>
+    <t>t91</t>
+  </si>
+  <si>
+    <t>t92</t>
+  </si>
+  <si>
+    <t>t93</t>
+  </si>
+  <si>
+    <t>t94</t>
+  </si>
+  <si>
+    <t>t95</t>
+  </si>
+  <si>
+    <t>t96</t>
+  </si>
+  <si>
+    <t>t97</t>
+  </si>
+  <si>
+    <t>t98</t>
+  </si>
+  <si>
+    <t>t99</t>
+  </si>
+  <si>
+    <t>t100</t>
+  </si>
+  <si>
+    <t>t101</t>
+  </si>
+  <si>
+    <t>t102</t>
+  </si>
+  <si>
+    <t>t103</t>
+  </si>
+  <si>
+    <t>t104</t>
+  </si>
+  <si>
+    <t>t105</t>
+  </si>
+  <si>
+    <t>t106</t>
+  </si>
+  <si>
+    <t>t107</t>
+  </si>
+  <si>
+    <t>t108</t>
+  </si>
+  <si>
+    <t>t109</t>
+  </si>
+  <si>
+    <t>t110</t>
+  </si>
+  <si>
+    <t>t111</t>
+  </si>
+  <si>
+    <t>t112</t>
+  </si>
+  <si>
+    <t>t113</t>
+  </si>
+  <si>
+    <t>t114</t>
+  </si>
+  <si>
+    <t>t115</t>
+  </si>
+  <si>
+    <t>t116</t>
+  </si>
+  <si>
+    <t>t117</t>
+  </si>
+  <si>
+    <t>t118</t>
+  </si>
+  <si>
+    <t>t119</t>
+  </si>
+  <si>
+    <t>t120</t>
+  </si>
+  <si>
+    <t>t121</t>
+  </si>
+  <si>
+    <t>t122</t>
+  </si>
+  <si>
+    <t>t123</t>
+  </si>
+  <si>
+    <t>t124</t>
+  </si>
+  <si>
+    <t>t125</t>
+  </si>
+  <si>
+    <t>t126</t>
+  </si>
+  <si>
+    <t>t127</t>
+  </si>
+  <si>
+    <t>t128</t>
+  </si>
+  <si>
+    <t>t129</t>
+  </si>
+  <si>
+    <t>t130</t>
+  </si>
+  <si>
+    <t>t131</t>
+  </si>
+  <si>
+    <t>t132</t>
+  </si>
+  <si>
+    <t>t133</t>
+  </si>
+  <si>
+    <t>t134</t>
+  </si>
+  <si>
+    <t>t135</t>
+  </si>
+  <si>
+    <t>t136</t>
+  </si>
+  <si>
+    <t>t137</t>
+  </si>
+  <si>
+    <t>t138</t>
+  </si>
+  <si>
+    <t>t139</t>
+  </si>
+  <si>
+    <t>t140</t>
+  </si>
+  <si>
+    <t>t141</t>
+  </si>
+  <si>
+    <t>t142</t>
+  </si>
+  <si>
+    <t>t143</t>
+  </si>
+  <si>
+    <t>t144</t>
+  </si>
+  <si>
+    <t>t145</t>
+  </si>
+  <si>
+    <t>t146</t>
+  </si>
+  <si>
+    <t>t147</t>
+  </si>
+  <si>
+    <t>t148</t>
+  </si>
+  <si>
+    <t>t149</t>
+  </si>
+  <si>
+    <t>t150</t>
+  </si>
+  <si>
+    <t>t151</t>
+  </si>
+  <si>
+    <t>t152</t>
+  </si>
+  <si>
+    <t>t153</t>
+  </si>
+  <si>
+    <t>t154</t>
+  </si>
+  <si>
+    <t>t155</t>
+  </si>
+  <si>
+    <t>t156</t>
+  </si>
+  <si>
+    <t>t157</t>
+  </si>
+  <si>
+    <t>t158</t>
+  </si>
+  <si>
+    <t>t159</t>
+  </si>
+  <si>
+    <t>t160</t>
+  </si>
+  <si>
+    <t>t161</t>
+  </si>
+  <si>
+    <t>t162</t>
+  </si>
+  <si>
+    <t>t163</t>
+  </si>
+  <si>
+    <t>t164</t>
+  </si>
+  <si>
+    <t>t165</t>
+  </si>
+  <si>
+    <t>t166</t>
+  </si>
+  <si>
+    <t>t167</t>
+  </si>
+  <si>
+    <t>t168</t>
+  </si>
+  <si>
+    <t>t169</t>
+  </si>
+  <si>
+    <t>t170</t>
+  </si>
+  <si>
+    <t>t171</t>
+  </si>
+  <si>
+    <t>t172</t>
+  </si>
+  <si>
+    <t>t173</t>
+  </si>
+  <si>
+    <t>t174</t>
+  </si>
+  <si>
+    <t>t175</t>
+  </si>
+  <si>
+    <t>t176</t>
+  </si>
+  <si>
+    <t>t177</t>
+  </si>
+  <si>
+    <t>t178</t>
+  </si>
+  <si>
+    <t>t179</t>
+  </si>
+  <si>
+    <t>t180</t>
+  </si>
+  <si>
+    <t>t181</t>
+  </si>
+  <si>
+    <t>t182</t>
+  </si>
+  <si>
+    <t>t183</t>
+  </si>
+  <si>
+    <t>t184</t>
+  </si>
+  <si>
+    <t>t185</t>
+  </si>
+  <si>
+    <t>t186</t>
+  </si>
+  <si>
+    <t>t187</t>
+  </si>
+  <si>
+    <t>t188</t>
+  </si>
+  <si>
+    <t>t189</t>
+  </si>
+  <si>
+    <t>t190</t>
+  </si>
+  <si>
+    <t>t191</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +635,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -148,8 +669,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,19 +952,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:GL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="FM1" workbookViewId="0">
+      <selection activeCell="GB19" sqref="GB19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C1" t="s">
@@ -517,169 +1039,5770 @@
       <c r="Z1" t="s">
         <v>23</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>1050</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="F2">
-        <v>122</v>
+        <v>1150</v>
       </c>
       <c r="G2">
-        <v>140</v>
+        <v>1200</v>
       </c>
       <c r="H2">
-        <v>150</v>
+        <v>1250</v>
       </c>
       <c r="I2">
-        <v>260</v>
+        <v>1300</v>
       </c>
       <c r="J2">
-        <v>300</v>
+        <v>1350</v>
       </c>
       <c r="K2">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="L2">
-        <v>410</v>
+        <v>1450</v>
       </c>
       <c r="M2">
-        <v>420</v>
+        <v>1500</v>
       </c>
       <c r="N2">
-        <v>440</v>
+        <v>1550</v>
       </c>
       <c r="O2">
-        <v>442</v>
+        <v>1600</v>
       </c>
       <c r="P2">
-        <v>452</v>
+        <v>1650</v>
       </c>
       <c r="Q2">
-        <v>430</v>
+        <v>1700</v>
       </c>
       <c r="R2">
-        <v>422</v>
+        <v>1750</v>
       </c>
       <c r="S2">
-        <v>320</v>
+        <v>1800</v>
       </c>
       <c r="T2">
-        <v>233</v>
+        <v>1850</v>
       </c>
       <c r="U2">
-        <v>150</v>
+        <v>1900</v>
       </c>
       <c r="V2">
-        <v>200</v>
+        <v>1950</v>
       </c>
       <c r="W2">
-        <v>210</v>
+        <v>2000</v>
       </c>
       <c r="X2">
-        <v>160</v>
+        <v>2050</v>
       </c>
       <c r="Y2">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="Z2">
-        <v>101</v>
+        <v>2150</v>
+      </c>
+      <c r="AA2">
+        <v>2200</v>
+      </c>
+      <c r="AB2">
+        <v>2250</v>
+      </c>
+      <c r="AC2">
+        <v>2300</v>
+      </c>
+      <c r="AD2">
+        <v>2350</v>
+      </c>
+      <c r="AE2">
+        <v>2400</v>
+      </c>
+      <c r="AF2">
+        <v>2450</v>
+      </c>
+      <c r="AG2">
+        <v>2500</v>
+      </c>
+      <c r="AH2">
+        <v>2550</v>
+      </c>
+      <c r="AI2">
+        <v>2600</v>
+      </c>
+      <c r="AJ2">
+        <v>2650</v>
+      </c>
+      <c r="AK2">
+        <v>2700</v>
+      </c>
+      <c r="AL2">
+        <v>2750</v>
+      </c>
+      <c r="AM2">
+        <v>2800</v>
+      </c>
+      <c r="AN2">
+        <v>2850</v>
+      </c>
+      <c r="AO2">
+        <v>2900</v>
+      </c>
+      <c r="AP2">
+        <v>2950</v>
+      </c>
+      <c r="AQ2">
+        <v>3000</v>
+      </c>
+      <c r="AR2">
+        <v>3050</v>
+      </c>
+      <c r="AS2">
+        <v>3100</v>
+      </c>
+      <c r="AT2">
+        <v>3150</v>
+      </c>
+      <c r="AU2">
+        <v>3200</v>
+      </c>
+      <c r="AV2">
+        <v>3250</v>
+      </c>
+      <c r="AW2">
+        <v>3300</v>
+      </c>
+      <c r="AX2">
+        <v>3350</v>
+      </c>
+      <c r="AY2">
+        <v>3400</v>
+      </c>
+      <c r="AZ2">
+        <v>3350</v>
+      </c>
+      <c r="BA2">
+        <v>3300</v>
+      </c>
+      <c r="BB2">
+        <v>3250</v>
+      </c>
+      <c r="BC2">
+        <v>3200</v>
+      </c>
+      <c r="BD2">
+        <v>3150</v>
+      </c>
+      <c r="BE2">
+        <v>3100</v>
+      </c>
+      <c r="BF2">
+        <v>3050</v>
+      </c>
+      <c r="BG2">
+        <v>3000</v>
+      </c>
+      <c r="BH2">
+        <v>2950</v>
+      </c>
+      <c r="BI2">
+        <v>2900</v>
+      </c>
+      <c r="BJ2">
+        <v>2850</v>
+      </c>
+      <c r="BK2">
+        <v>2800</v>
+      </c>
+      <c r="BL2">
+        <v>2750</v>
+      </c>
+      <c r="BM2">
+        <v>2700</v>
+      </c>
+      <c r="BN2">
+        <v>2650</v>
+      </c>
+      <c r="BO2">
+        <v>2600</v>
+      </c>
+      <c r="BP2">
+        <v>2550</v>
+      </c>
+      <c r="BQ2">
+        <v>2500</v>
+      </c>
+      <c r="BR2">
+        <v>2450</v>
+      </c>
+      <c r="BS2">
+        <v>2400</v>
+      </c>
+      <c r="BT2">
+        <v>2350</v>
+      </c>
+      <c r="BU2">
+        <v>2300</v>
+      </c>
+      <c r="BV2">
+        <v>2250</v>
+      </c>
+      <c r="BW2">
+        <v>2200</v>
+      </c>
+      <c r="BX2">
+        <v>2150</v>
+      </c>
+      <c r="BY2">
+        <v>2100</v>
+      </c>
+      <c r="BZ2">
+        <v>2050</v>
+      </c>
+      <c r="CA2">
+        <v>2000</v>
+      </c>
+      <c r="CB2">
+        <v>1950</v>
+      </c>
+      <c r="CC2">
+        <v>1900</v>
+      </c>
+      <c r="CD2">
+        <v>1850</v>
+      </c>
+      <c r="CE2">
+        <v>1800</v>
+      </c>
+      <c r="CF2">
+        <v>1750</v>
+      </c>
+      <c r="CG2">
+        <v>1700</v>
+      </c>
+      <c r="CH2">
+        <v>1650</v>
+      </c>
+      <c r="CI2">
+        <v>1600</v>
+      </c>
+      <c r="CJ2">
+        <v>1550</v>
+      </c>
+      <c r="CK2">
+        <v>1500</v>
+      </c>
+      <c r="CL2">
+        <v>1450</v>
+      </c>
+      <c r="CM2">
+        <v>1400</v>
+      </c>
+      <c r="CN2">
+        <v>1350</v>
+      </c>
+      <c r="CO2">
+        <v>1300</v>
+      </c>
+      <c r="CP2">
+        <v>1250</v>
+      </c>
+      <c r="CQ2">
+        <v>1200</v>
+      </c>
+      <c r="CR2">
+        <v>1150</v>
+      </c>
+      <c r="CS2">
+        <v>1100</v>
+      </c>
+      <c r="CT2">
+        <v>1050</v>
+      </c>
+      <c r="CU2">
+        <v>1000</v>
+      </c>
+      <c r="CV2">
+        <v>1050</v>
+      </c>
+      <c r="CW2">
+        <v>1100</v>
+      </c>
+      <c r="CX2">
+        <v>1150</v>
+      </c>
+      <c r="CY2">
+        <v>1200</v>
+      </c>
+      <c r="CZ2">
+        <v>1250</v>
+      </c>
+      <c r="DA2">
+        <v>1300</v>
+      </c>
+      <c r="DB2">
+        <v>1350</v>
+      </c>
+      <c r="DC2">
+        <v>1400</v>
+      </c>
+      <c r="DD2">
+        <v>1450</v>
+      </c>
+      <c r="DE2">
+        <v>1500</v>
+      </c>
+      <c r="DF2">
+        <v>1550</v>
+      </c>
+      <c r="DG2">
+        <v>1600</v>
+      </c>
+      <c r="DH2">
+        <v>1650</v>
+      </c>
+      <c r="DI2">
+        <v>1700</v>
+      </c>
+      <c r="DJ2">
+        <v>1750</v>
+      </c>
+      <c r="DK2">
+        <v>1800</v>
+      </c>
+      <c r="DL2">
+        <v>1850</v>
+      </c>
+      <c r="DM2">
+        <v>1900</v>
+      </c>
+      <c r="DN2">
+        <v>1950</v>
+      </c>
+      <c r="DO2">
+        <v>2000</v>
+      </c>
+      <c r="DP2">
+        <v>2050</v>
+      </c>
+      <c r="DQ2">
+        <v>2100</v>
+      </c>
+      <c r="DR2">
+        <v>2150</v>
+      </c>
+      <c r="DS2">
+        <v>2200</v>
+      </c>
+      <c r="DT2">
+        <v>2250</v>
+      </c>
+      <c r="DU2">
+        <v>2300</v>
+      </c>
+      <c r="DV2">
+        <v>2350</v>
+      </c>
+      <c r="DW2">
+        <v>2400</v>
+      </c>
+      <c r="DX2">
+        <v>2450</v>
+      </c>
+      <c r="DY2">
+        <v>2500</v>
+      </c>
+      <c r="DZ2">
+        <v>2550</v>
+      </c>
+      <c r="EA2">
+        <v>2600</v>
+      </c>
+      <c r="EB2">
+        <v>2650</v>
+      </c>
+      <c r="EC2">
+        <v>2700</v>
+      </c>
+      <c r="ED2">
+        <v>2750</v>
+      </c>
+      <c r="EE2">
+        <v>2800</v>
+      </c>
+      <c r="EF2">
+        <v>2850</v>
+      </c>
+      <c r="EG2">
+        <v>2900</v>
+      </c>
+      <c r="EH2">
+        <v>2950</v>
+      </c>
+      <c r="EI2">
+        <v>3000</v>
+      </c>
+      <c r="EJ2">
+        <v>3050</v>
+      </c>
+      <c r="EK2">
+        <v>3100</v>
+      </c>
+      <c r="EL2">
+        <v>3150</v>
+      </c>
+      <c r="EM2">
+        <v>3200</v>
+      </c>
+      <c r="EN2">
+        <v>3250</v>
+      </c>
+      <c r="EO2">
+        <v>3300</v>
+      </c>
+      <c r="EP2">
+        <v>3350</v>
+      </c>
+      <c r="EQ2">
+        <v>3400</v>
+      </c>
+      <c r="ER2">
+        <v>3350</v>
+      </c>
+      <c r="ES2">
+        <v>3300</v>
+      </c>
+      <c r="ET2">
+        <v>3250</v>
+      </c>
+      <c r="EU2">
+        <v>3200</v>
+      </c>
+      <c r="EV2">
+        <v>3150</v>
+      </c>
+      <c r="EW2">
+        <v>3100</v>
+      </c>
+      <c r="EX2">
+        <v>3050</v>
+      </c>
+      <c r="EY2">
+        <v>3000</v>
+      </c>
+      <c r="EZ2">
+        <v>2950</v>
+      </c>
+      <c r="FA2">
+        <v>2900</v>
+      </c>
+      <c r="FB2">
+        <v>2850</v>
+      </c>
+      <c r="FC2">
+        <v>2800</v>
+      </c>
+      <c r="FD2">
+        <v>2750</v>
+      </c>
+      <c r="FE2">
+        <v>2700</v>
+      </c>
+      <c r="FF2">
+        <v>2650</v>
+      </c>
+      <c r="FG2">
+        <v>2600</v>
+      </c>
+      <c r="FH2">
+        <v>2550</v>
+      </c>
+      <c r="FI2">
+        <v>2500</v>
+      </c>
+      <c r="FJ2">
+        <v>2450</v>
+      </c>
+      <c r="FK2">
+        <v>2400</v>
+      </c>
+      <c r="FL2">
+        <v>2350</v>
+      </c>
+      <c r="FM2">
+        <v>2300</v>
+      </c>
+      <c r="FN2">
+        <v>2250</v>
+      </c>
+      <c r="FO2">
+        <v>2200</v>
+      </c>
+      <c r="FP2">
+        <v>2150</v>
+      </c>
+      <c r="FQ2">
+        <v>2100</v>
+      </c>
+      <c r="FR2">
+        <v>2050</v>
+      </c>
+      <c r="FS2">
+        <v>2000</v>
+      </c>
+      <c r="FT2">
+        <v>1950</v>
+      </c>
+      <c r="FU2">
+        <v>1900</v>
+      </c>
+      <c r="FV2">
+        <v>1850</v>
+      </c>
+      <c r="FW2">
+        <v>1800</v>
+      </c>
+      <c r="FX2">
+        <v>1750</v>
+      </c>
+      <c r="FY2">
+        <v>1700</v>
+      </c>
+      <c r="FZ2">
+        <v>1650</v>
+      </c>
+      <c r="GA2">
+        <v>1600</v>
+      </c>
+      <c r="GB2">
+        <v>1550</v>
+      </c>
+      <c r="GC2">
+        <v>1500</v>
+      </c>
+      <c r="GD2">
+        <v>1450</v>
+      </c>
+      <c r="GE2">
+        <v>1400</v>
+      </c>
+      <c r="GF2">
+        <v>1350</v>
+      </c>
+      <c r="GG2">
+        <v>1300</v>
+      </c>
+      <c r="GH2">
+        <v>1250</v>
+      </c>
+      <c r="GI2">
+        <v>1200</v>
+      </c>
+      <c r="GJ2">
+        <v>1150</v>
+      </c>
+      <c r="GK2">
+        <v>1100</v>
+      </c>
+      <c r="GL2">
+        <v>1050</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>1050</v>
+      </c>
+      <c r="E3">
+        <v>1100</v>
+      </c>
+      <c r="F3">
+        <v>1150</v>
+      </c>
+      <c r="G3">
+        <v>1200</v>
+      </c>
+      <c r="H3">
+        <v>1250</v>
+      </c>
+      <c r="I3">
+        <v>1300</v>
+      </c>
+      <c r="J3">
+        <v>1350</v>
+      </c>
+      <c r="K3">
+        <v>1400</v>
+      </c>
+      <c r="L3">
+        <v>1450</v>
+      </c>
+      <c r="M3">
+        <v>1500</v>
+      </c>
+      <c r="N3">
+        <v>1550</v>
+      </c>
+      <c r="O3">
+        <v>1600</v>
+      </c>
+      <c r="P3">
+        <v>1650</v>
+      </c>
+      <c r="Q3">
+        <v>1700</v>
+      </c>
+      <c r="R3">
+        <v>1750</v>
+      </c>
+      <c r="S3">
+        <v>1800</v>
+      </c>
+      <c r="T3">
+        <v>1850</v>
+      </c>
+      <c r="U3">
+        <v>1900</v>
+      </c>
+      <c r="V3">
+        <v>1950</v>
+      </c>
+      <c r="W3">
+        <v>2000</v>
+      </c>
+      <c r="X3">
+        <v>2050</v>
+      </c>
+      <c r="Y3">
+        <v>2100</v>
+      </c>
+      <c r="Z3">
+        <v>2150</v>
+      </c>
+      <c r="AA3">
+        <v>2200</v>
+      </c>
+      <c r="AB3">
+        <v>2250</v>
+      </c>
+      <c r="AC3">
+        <v>2300</v>
+      </c>
+      <c r="AD3">
+        <v>2350</v>
+      </c>
+      <c r="AE3">
+        <v>2400</v>
+      </c>
+      <c r="AF3">
+        <v>2450</v>
+      </c>
+      <c r="AG3">
+        <v>2500</v>
+      </c>
+      <c r="AH3">
+        <v>2550</v>
+      </c>
+      <c r="AI3">
+        <v>2600</v>
+      </c>
+      <c r="AJ3">
+        <v>2650</v>
+      </c>
+      <c r="AK3">
+        <v>2700</v>
+      </c>
+      <c r="AL3">
+        <v>2750</v>
+      </c>
+      <c r="AM3">
+        <v>2800</v>
+      </c>
+      <c r="AN3">
+        <v>2850</v>
+      </c>
+      <c r="AO3">
+        <v>2900</v>
+      </c>
+      <c r="AP3">
+        <v>2950</v>
+      </c>
+      <c r="AQ3">
+        <v>3000</v>
+      </c>
+      <c r="AR3">
+        <v>3050</v>
+      </c>
+      <c r="AS3">
+        <v>3100</v>
+      </c>
+      <c r="AT3">
+        <v>3150</v>
+      </c>
+      <c r="AU3">
+        <v>3200</v>
+      </c>
+      <c r="AV3">
+        <v>3250</v>
+      </c>
+      <c r="AW3">
+        <v>3300</v>
+      </c>
+      <c r="AX3">
+        <v>3350</v>
+      </c>
+      <c r="AY3">
+        <v>3400</v>
+      </c>
+      <c r="AZ3">
+        <v>3350</v>
+      </c>
+      <c r="BA3">
+        <v>3300</v>
+      </c>
+      <c r="BB3">
+        <v>3250</v>
+      </c>
+      <c r="BC3">
+        <v>3200</v>
+      </c>
+      <c r="BD3">
+        <v>3150</v>
+      </c>
+      <c r="BE3">
+        <v>3100</v>
+      </c>
+      <c r="BF3">
+        <v>3050</v>
+      </c>
+      <c r="BG3">
+        <v>3000</v>
+      </c>
+      <c r="BH3">
+        <v>2950</v>
+      </c>
+      <c r="BI3">
+        <v>2900</v>
+      </c>
+      <c r="BJ3">
+        <v>2850</v>
+      </c>
+      <c r="BK3">
+        <v>2800</v>
+      </c>
+      <c r="BL3">
+        <v>2750</v>
+      </c>
+      <c r="BM3">
+        <v>2700</v>
+      </c>
+      <c r="BN3">
+        <v>2650</v>
+      </c>
+      <c r="BO3">
+        <v>2600</v>
+      </c>
+      <c r="BP3">
+        <v>2550</v>
+      </c>
+      <c r="BQ3">
+        <v>2500</v>
+      </c>
+      <c r="BR3">
+        <v>2450</v>
+      </c>
+      <c r="BS3">
+        <v>2400</v>
+      </c>
+      <c r="BT3">
+        <v>2350</v>
+      </c>
+      <c r="BU3">
+        <v>2300</v>
+      </c>
+      <c r="BV3">
+        <v>2250</v>
+      </c>
+      <c r="BW3">
+        <v>2200</v>
+      </c>
+      <c r="BX3">
+        <v>2150</v>
+      </c>
+      <c r="BY3">
+        <v>2100</v>
+      </c>
+      <c r="BZ3">
+        <v>2050</v>
+      </c>
+      <c r="CA3">
+        <v>2000</v>
+      </c>
+      <c r="CB3">
+        <v>1950</v>
+      </c>
+      <c r="CC3">
+        <v>1900</v>
+      </c>
+      <c r="CD3">
+        <v>1850</v>
+      </c>
+      <c r="CE3">
+        <v>1800</v>
+      </c>
+      <c r="CF3">
+        <v>1750</v>
+      </c>
+      <c r="CG3">
+        <v>1700</v>
+      </c>
+      <c r="CH3">
+        <v>1650</v>
+      </c>
+      <c r="CI3">
+        <v>1600</v>
+      </c>
+      <c r="CJ3">
+        <v>1550</v>
+      </c>
+      <c r="CK3">
+        <v>1500</v>
+      </c>
+      <c r="CL3">
+        <v>1450</v>
+      </c>
+      <c r="CM3">
+        <v>1400</v>
+      </c>
+      <c r="CN3">
+        <v>1350</v>
+      </c>
+      <c r="CO3">
+        <v>1300</v>
+      </c>
+      <c r="CP3">
+        <v>1250</v>
+      </c>
+      <c r="CQ3">
+        <v>1200</v>
+      </c>
+      <c r="CR3">
+        <v>1150</v>
+      </c>
+      <c r="CS3">
+        <v>1100</v>
+      </c>
+      <c r="CT3">
+        <v>1050</v>
+      </c>
+      <c r="CU3">
+        <v>1000</v>
+      </c>
+      <c r="CV3">
+        <v>1050</v>
+      </c>
+      <c r="CW3">
+        <v>1100</v>
+      </c>
+      <c r="CX3">
+        <v>1150</v>
+      </c>
+      <c r="CY3">
+        <v>1200</v>
+      </c>
+      <c r="CZ3">
+        <v>1250</v>
+      </c>
+      <c r="DA3">
+        <v>1300</v>
+      </c>
+      <c r="DB3">
+        <v>1350</v>
+      </c>
+      <c r="DC3">
+        <v>1400</v>
+      </c>
+      <c r="DD3">
+        <v>1450</v>
+      </c>
+      <c r="DE3">
+        <v>1500</v>
+      </c>
+      <c r="DF3">
+        <v>1550</v>
+      </c>
+      <c r="DG3">
+        <v>1600</v>
+      </c>
+      <c r="DH3">
+        <v>1650</v>
+      </c>
+      <c r="DI3">
+        <v>1700</v>
+      </c>
+      <c r="DJ3">
+        <v>1750</v>
+      </c>
+      <c r="DK3">
+        <v>1800</v>
+      </c>
+      <c r="DL3">
+        <v>1850</v>
+      </c>
+      <c r="DM3">
+        <v>1900</v>
+      </c>
+      <c r="DN3">
+        <v>1950</v>
+      </c>
+      <c r="DO3">
+        <v>2000</v>
+      </c>
+      <c r="DP3">
+        <v>2050</v>
+      </c>
+      <c r="DQ3">
+        <v>2100</v>
+      </c>
+      <c r="DR3">
+        <v>2150</v>
+      </c>
+      <c r="DS3">
+        <v>2200</v>
+      </c>
+      <c r="DT3">
+        <v>2250</v>
+      </c>
+      <c r="DU3">
+        <v>2300</v>
+      </c>
+      <c r="DV3">
+        <v>2350</v>
+      </c>
+      <c r="DW3">
+        <v>2400</v>
+      </c>
+      <c r="DX3">
+        <v>2450</v>
+      </c>
+      <c r="DY3">
+        <v>2500</v>
+      </c>
+      <c r="DZ3">
+        <v>2550</v>
+      </c>
+      <c r="EA3">
+        <v>2600</v>
+      </c>
+      <c r="EB3">
+        <v>2650</v>
+      </c>
+      <c r="EC3">
+        <v>2700</v>
+      </c>
+      <c r="ED3">
+        <v>2750</v>
+      </c>
+      <c r="EE3">
+        <v>2800</v>
+      </c>
+      <c r="EF3">
+        <v>2850</v>
+      </c>
+      <c r="EG3">
+        <v>2900</v>
+      </c>
+      <c r="EH3">
+        <v>2950</v>
+      </c>
+      <c r="EI3">
+        <v>3000</v>
+      </c>
+      <c r="EJ3">
+        <v>3050</v>
+      </c>
+      <c r="EK3">
+        <v>3100</v>
+      </c>
+      <c r="EL3">
+        <v>3150</v>
+      </c>
+      <c r="EM3">
+        <v>3200</v>
+      </c>
+      <c r="EN3">
+        <v>3250</v>
+      </c>
+      <c r="EO3">
+        <v>3300</v>
+      </c>
+      <c r="EP3">
+        <v>3350</v>
+      </c>
+      <c r="EQ3">
+        <v>3400</v>
+      </c>
+      <c r="ER3">
+        <v>3350</v>
+      </c>
+      <c r="ES3">
+        <v>3300</v>
+      </c>
+      <c r="ET3">
+        <v>3250</v>
+      </c>
+      <c r="EU3">
+        <v>3200</v>
+      </c>
+      <c r="EV3">
+        <v>3150</v>
+      </c>
+      <c r="EW3">
+        <v>3100</v>
+      </c>
+      <c r="EX3">
+        <v>3050</v>
+      </c>
+      <c r="EY3">
+        <v>3000</v>
+      </c>
+      <c r="EZ3">
+        <v>2950</v>
+      </c>
+      <c r="FA3">
+        <v>2900</v>
+      </c>
+      <c r="FB3">
+        <v>2850</v>
+      </c>
+      <c r="FC3">
+        <v>2800</v>
+      </c>
+      <c r="FD3">
+        <v>2750</v>
+      </c>
+      <c r="FE3">
+        <v>2700</v>
+      </c>
+      <c r="FF3">
+        <v>2650</v>
+      </c>
+      <c r="FG3">
+        <v>2600</v>
+      </c>
+      <c r="FH3">
+        <v>2550</v>
+      </c>
+      <c r="FI3">
+        <v>2500</v>
+      </c>
+      <c r="FJ3">
+        <v>2450</v>
+      </c>
+      <c r="FK3">
+        <v>2400</v>
+      </c>
+      <c r="FL3">
+        <v>2350</v>
+      </c>
+      <c r="FM3">
+        <v>2300</v>
+      </c>
+      <c r="FN3">
+        <v>2250</v>
+      </c>
+      <c r="FO3">
+        <v>2200</v>
+      </c>
+      <c r="FP3">
+        <v>2150</v>
+      </c>
+      <c r="FQ3">
+        <v>2100</v>
+      </c>
+      <c r="FR3">
+        <v>2050</v>
+      </c>
+      <c r="FS3">
+        <v>2000</v>
+      </c>
+      <c r="FT3">
+        <v>1950</v>
+      </c>
+      <c r="FU3">
+        <v>1900</v>
+      </c>
+      <c r="FV3">
+        <v>1850</v>
+      </c>
+      <c r="FW3">
+        <v>1800</v>
+      </c>
+      <c r="FX3">
+        <v>1750</v>
+      </c>
+      <c r="FY3">
+        <v>1700</v>
+      </c>
+      <c r="FZ3">
+        <v>1650</v>
+      </c>
+      <c r="GA3">
+        <v>1600</v>
+      </c>
+      <c r="GB3">
+        <v>1550</v>
+      </c>
+      <c r="GC3">
+        <v>1500</v>
+      </c>
+      <c r="GD3">
+        <v>1450</v>
+      </c>
+      <c r="GE3">
+        <v>1400</v>
+      </c>
+      <c r="GF3">
+        <v>1350</v>
+      </c>
+      <c r="GG3">
+        <v>1300</v>
+      </c>
+      <c r="GH3">
+        <v>1250</v>
+      </c>
+      <c r="GI3">
+        <v>1200</v>
+      </c>
+      <c r="GJ3">
+        <v>1150</v>
+      </c>
+      <c r="GK3">
+        <v>1100</v>
+      </c>
+      <c r="GL3">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1050</v>
+      </c>
+      <c r="E4">
+        <v>1100</v>
+      </c>
+      <c r="F4">
+        <v>1150</v>
+      </c>
+      <c r="G4">
+        <v>1200</v>
+      </c>
+      <c r="H4">
+        <v>1250</v>
+      </c>
+      <c r="I4">
+        <v>1300</v>
+      </c>
+      <c r="J4">
+        <v>1350</v>
+      </c>
+      <c r="K4">
+        <v>1400</v>
+      </c>
+      <c r="L4">
+        <v>1450</v>
+      </c>
+      <c r="M4">
+        <v>1500</v>
+      </c>
+      <c r="N4">
+        <v>1550</v>
+      </c>
+      <c r="O4">
+        <v>1600</v>
+      </c>
+      <c r="P4">
+        <v>1650</v>
+      </c>
+      <c r="Q4">
+        <v>1700</v>
+      </c>
+      <c r="R4">
+        <v>1750</v>
+      </c>
+      <c r="S4">
+        <v>1800</v>
+      </c>
+      <c r="T4">
+        <v>1850</v>
+      </c>
+      <c r="U4">
+        <v>1900</v>
+      </c>
+      <c r="V4">
+        <v>1950</v>
+      </c>
+      <c r="W4">
+        <v>2000</v>
+      </c>
+      <c r="X4">
+        <v>2050</v>
+      </c>
+      <c r="Y4">
+        <v>2100</v>
+      </c>
+      <c r="Z4">
+        <v>2150</v>
+      </c>
+      <c r="AA4">
+        <v>2200</v>
+      </c>
+      <c r="AB4">
+        <v>2250</v>
+      </c>
+      <c r="AC4">
+        <v>2300</v>
+      </c>
+      <c r="AD4">
+        <v>2350</v>
+      </c>
+      <c r="AE4">
+        <v>2400</v>
+      </c>
+      <c r="AF4">
+        <v>2450</v>
+      </c>
+      <c r="AG4">
+        <v>2500</v>
+      </c>
+      <c r="AH4">
+        <v>2550</v>
+      </c>
+      <c r="AI4">
+        <v>2600</v>
+      </c>
+      <c r="AJ4">
+        <v>2650</v>
+      </c>
+      <c r="AK4">
+        <v>2700</v>
+      </c>
+      <c r="AL4">
+        <v>2750</v>
+      </c>
+      <c r="AM4">
+        <v>2800</v>
+      </c>
+      <c r="AN4">
+        <v>2850</v>
+      </c>
+      <c r="AO4">
+        <v>2900</v>
+      </c>
+      <c r="AP4">
+        <v>2950</v>
+      </c>
+      <c r="AQ4">
+        <v>3000</v>
+      </c>
+      <c r="AR4">
+        <v>3050</v>
+      </c>
+      <c r="AS4">
+        <v>3100</v>
+      </c>
+      <c r="AT4">
+        <v>3150</v>
+      </c>
+      <c r="AU4">
+        <v>3200</v>
+      </c>
+      <c r="AV4">
+        <v>3250</v>
+      </c>
+      <c r="AW4">
+        <v>3300</v>
+      </c>
+      <c r="AX4">
+        <v>3350</v>
+      </c>
+      <c r="AY4">
+        <v>3400</v>
+      </c>
+      <c r="AZ4">
+        <v>3350</v>
+      </c>
+      <c r="BA4">
+        <v>3300</v>
+      </c>
+      <c r="BB4">
+        <v>3250</v>
+      </c>
+      <c r="BC4">
+        <v>3200</v>
+      </c>
+      <c r="BD4">
+        <v>3150</v>
+      </c>
+      <c r="BE4">
+        <v>3100</v>
+      </c>
+      <c r="BF4">
+        <v>3050</v>
+      </c>
+      <c r="BG4">
+        <v>3000</v>
+      </c>
+      <c r="BH4">
+        <v>2950</v>
+      </c>
+      <c r="BI4">
+        <v>2900</v>
+      </c>
+      <c r="BJ4">
+        <v>2850</v>
+      </c>
+      <c r="BK4">
+        <v>2800</v>
+      </c>
+      <c r="BL4">
+        <v>2750</v>
+      </c>
+      <c r="BM4">
+        <v>2700</v>
+      </c>
+      <c r="BN4">
+        <v>2650</v>
+      </c>
+      <c r="BO4">
+        <v>2600</v>
+      </c>
+      <c r="BP4">
+        <v>2550</v>
+      </c>
+      <c r="BQ4">
+        <v>2500</v>
+      </c>
+      <c r="BR4">
+        <v>2450</v>
+      </c>
+      <c r="BS4">
+        <v>2400</v>
+      </c>
+      <c r="BT4">
+        <v>2350</v>
+      </c>
+      <c r="BU4">
+        <v>2300</v>
+      </c>
+      <c r="BV4">
+        <v>2250</v>
+      </c>
+      <c r="BW4">
+        <v>2200</v>
+      </c>
+      <c r="BX4">
+        <v>2150</v>
+      </c>
+      <c r="BY4">
+        <v>2100</v>
+      </c>
+      <c r="BZ4">
+        <v>2050</v>
+      </c>
+      <c r="CA4">
+        <v>2000</v>
+      </c>
+      <c r="CB4">
+        <v>1950</v>
+      </c>
+      <c r="CC4">
+        <v>1900</v>
+      </c>
+      <c r="CD4">
+        <v>1850</v>
+      </c>
+      <c r="CE4">
+        <v>1800</v>
+      </c>
+      <c r="CF4">
+        <v>1750</v>
+      </c>
+      <c r="CG4">
+        <v>1700</v>
+      </c>
+      <c r="CH4">
+        <v>1650</v>
+      </c>
+      <c r="CI4">
+        <v>1600</v>
+      </c>
+      <c r="CJ4">
+        <v>1550</v>
+      </c>
+      <c r="CK4">
+        <v>1500</v>
+      </c>
+      <c r="CL4">
+        <v>1450</v>
+      </c>
+      <c r="CM4">
+        <v>1400</v>
+      </c>
+      <c r="CN4">
+        <v>1350</v>
+      </c>
+      <c r="CO4">
+        <v>1300</v>
+      </c>
+      <c r="CP4">
+        <v>1250</v>
+      </c>
+      <c r="CQ4">
+        <v>1200</v>
+      </c>
+      <c r="CR4">
+        <v>1150</v>
+      </c>
+      <c r="CS4">
+        <v>1100</v>
+      </c>
+      <c r="CT4">
+        <v>1050</v>
+      </c>
+      <c r="CU4">
+        <v>1000</v>
+      </c>
+      <c r="CV4">
+        <v>1050</v>
+      </c>
+      <c r="CW4">
+        <v>1100</v>
+      </c>
+      <c r="CX4">
+        <v>1150</v>
+      </c>
+      <c r="CY4">
+        <v>1200</v>
+      </c>
+      <c r="CZ4">
+        <v>1250</v>
+      </c>
+      <c r="DA4">
+        <v>1300</v>
+      </c>
+      <c r="DB4">
+        <v>1350</v>
+      </c>
+      <c r="DC4">
+        <v>1400</v>
+      </c>
+      <c r="DD4">
+        <v>1450</v>
+      </c>
+      <c r="DE4">
+        <v>1500</v>
+      </c>
+      <c r="DF4">
+        <v>1550</v>
+      </c>
+      <c r="DG4">
+        <v>1600</v>
+      </c>
+      <c r="DH4">
+        <v>1650</v>
+      </c>
+      <c r="DI4">
+        <v>1700</v>
+      </c>
+      <c r="DJ4">
+        <v>1750</v>
+      </c>
+      <c r="DK4">
+        <v>1800</v>
+      </c>
+      <c r="DL4">
+        <v>1850</v>
+      </c>
+      <c r="DM4">
+        <v>1900</v>
+      </c>
+      <c r="DN4">
+        <v>1950</v>
+      </c>
+      <c r="DO4">
+        <v>2000</v>
+      </c>
+      <c r="DP4">
+        <v>2050</v>
+      </c>
+      <c r="DQ4">
+        <v>2100</v>
+      </c>
+      <c r="DR4">
+        <v>2150</v>
+      </c>
+      <c r="DS4">
+        <v>2200</v>
+      </c>
+      <c r="DT4">
+        <v>2250</v>
+      </c>
+      <c r="DU4">
+        <v>2300</v>
+      </c>
+      <c r="DV4">
+        <v>2350</v>
+      </c>
+      <c r="DW4">
+        <v>2400</v>
+      </c>
+      <c r="DX4">
+        <v>2450</v>
+      </c>
+      <c r="DY4">
+        <v>2500</v>
+      </c>
+      <c r="DZ4">
+        <v>2550</v>
+      </c>
+      <c r="EA4">
+        <v>2600</v>
+      </c>
+      <c r="EB4">
+        <v>2650</v>
+      </c>
+      <c r="EC4">
+        <v>2700</v>
+      </c>
+      <c r="ED4">
+        <v>2750</v>
+      </c>
+      <c r="EE4">
+        <v>2800</v>
+      </c>
+      <c r="EF4">
+        <v>2850</v>
+      </c>
+      <c r="EG4">
+        <v>2900</v>
+      </c>
+      <c r="EH4">
+        <v>2950</v>
+      </c>
+      <c r="EI4">
+        <v>3000</v>
+      </c>
+      <c r="EJ4">
+        <v>3050</v>
+      </c>
+      <c r="EK4">
+        <v>3100</v>
+      </c>
+      <c r="EL4">
+        <v>3150</v>
+      </c>
+      <c r="EM4">
+        <v>3200</v>
+      </c>
+      <c r="EN4">
+        <v>3250</v>
+      </c>
+      <c r="EO4">
+        <v>3300</v>
+      </c>
+      <c r="EP4">
+        <v>3350</v>
+      </c>
+      <c r="EQ4">
+        <v>3400</v>
+      </c>
+      <c r="ER4">
+        <v>3350</v>
+      </c>
+      <c r="ES4">
+        <v>3300</v>
+      </c>
+      <c r="ET4">
+        <v>3250</v>
+      </c>
+      <c r="EU4">
+        <v>3200</v>
+      </c>
+      <c r="EV4">
+        <v>3150</v>
+      </c>
+      <c r="EW4">
+        <v>3100</v>
+      </c>
+      <c r="EX4">
+        <v>3050</v>
+      </c>
+      <c r="EY4">
+        <v>3000</v>
+      </c>
+      <c r="EZ4">
+        <v>2950</v>
+      </c>
+      <c r="FA4">
+        <v>2900</v>
+      </c>
+      <c r="FB4">
+        <v>2850</v>
+      </c>
+      <c r="FC4">
+        <v>2800</v>
+      </c>
+      <c r="FD4">
+        <v>2750</v>
+      </c>
+      <c r="FE4">
+        <v>2700</v>
+      </c>
+      <c r="FF4">
+        <v>2650</v>
+      </c>
+      <c r="FG4">
+        <v>2600</v>
+      </c>
+      <c r="FH4">
+        <v>2550</v>
+      </c>
+      <c r="FI4">
+        <v>2500</v>
+      </c>
+      <c r="FJ4">
+        <v>2450</v>
+      </c>
+      <c r="FK4">
+        <v>2400</v>
+      </c>
+      <c r="FL4">
+        <v>2350</v>
+      </c>
+      <c r="FM4">
+        <v>2300</v>
+      </c>
+      <c r="FN4">
+        <v>2250</v>
+      </c>
+      <c r="FO4">
+        <v>2200</v>
+      </c>
+      <c r="FP4">
+        <v>2150</v>
+      </c>
+      <c r="FQ4">
+        <v>2100</v>
+      </c>
+      <c r="FR4">
+        <v>2050</v>
+      </c>
+      <c r="FS4">
+        <v>2000</v>
+      </c>
+      <c r="FT4">
+        <v>1950</v>
+      </c>
+      <c r="FU4">
+        <v>1900</v>
+      </c>
+      <c r="FV4">
+        <v>1850</v>
+      </c>
+      <c r="FW4">
+        <v>1800</v>
+      </c>
+      <c r="FX4">
+        <v>1750</v>
+      </c>
+      <c r="FY4">
+        <v>1700</v>
+      </c>
+      <c r="FZ4">
+        <v>1650</v>
+      </c>
+      <c r="GA4">
+        <v>1600</v>
+      </c>
+      <c r="GB4">
+        <v>1550</v>
+      </c>
+      <c r="GC4">
+        <v>1500</v>
+      </c>
+      <c r="GD4">
+        <v>1450</v>
+      </c>
+      <c r="GE4">
+        <v>1400</v>
+      </c>
+      <c r="GF4">
+        <v>1350</v>
+      </c>
+      <c r="GG4">
+        <v>1300</v>
+      </c>
+      <c r="GH4">
+        <v>1250</v>
+      </c>
+      <c r="GI4">
+        <v>1200</v>
+      </c>
+      <c r="GJ4">
+        <v>1150</v>
+      </c>
+      <c r="GK4">
+        <v>1100</v>
+      </c>
+      <c r="GL4">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>1050</v>
+      </c>
+      <c r="E5">
+        <v>1100</v>
+      </c>
+      <c r="F5">
+        <v>1150</v>
+      </c>
+      <c r="G5">
+        <v>1200</v>
+      </c>
+      <c r="H5">
+        <v>1250</v>
+      </c>
+      <c r="I5">
+        <v>1300</v>
+      </c>
+      <c r="J5">
+        <v>1350</v>
+      </c>
+      <c r="K5">
+        <v>1400</v>
+      </c>
+      <c r="L5">
+        <v>1450</v>
+      </c>
+      <c r="M5">
+        <v>1500</v>
+      </c>
+      <c r="N5">
+        <v>1550</v>
+      </c>
+      <c r="O5">
+        <v>1600</v>
+      </c>
+      <c r="P5">
+        <v>1650</v>
+      </c>
+      <c r="Q5">
+        <v>1700</v>
+      </c>
+      <c r="R5">
+        <v>1750</v>
+      </c>
+      <c r="S5">
+        <v>1800</v>
+      </c>
+      <c r="T5">
+        <v>1850</v>
+      </c>
+      <c r="U5">
+        <v>1900</v>
+      </c>
+      <c r="V5">
+        <v>1950</v>
+      </c>
+      <c r="W5">
+        <v>2000</v>
+      </c>
+      <c r="X5">
+        <v>2050</v>
+      </c>
+      <c r="Y5">
+        <v>2100</v>
+      </c>
+      <c r="Z5">
+        <v>2150</v>
+      </c>
+      <c r="AA5">
+        <v>2200</v>
+      </c>
+      <c r="AB5">
+        <v>2250</v>
+      </c>
+      <c r="AC5">
+        <v>2300</v>
+      </c>
+      <c r="AD5">
+        <v>2350</v>
+      </c>
+      <c r="AE5">
+        <v>2400</v>
+      </c>
+      <c r="AF5">
+        <v>2450</v>
+      </c>
+      <c r="AG5">
+        <v>2500</v>
+      </c>
+      <c r="AH5">
+        <v>2550</v>
+      </c>
+      <c r="AI5">
+        <v>2600</v>
+      </c>
+      <c r="AJ5">
+        <v>2650</v>
+      </c>
+      <c r="AK5">
+        <v>2700</v>
+      </c>
+      <c r="AL5">
+        <v>2750</v>
+      </c>
+      <c r="AM5">
+        <v>2800</v>
+      </c>
+      <c r="AN5">
+        <v>2850</v>
+      </c>
+      <c r="AO5">
+        <v>2900</v>
+      </c>
+      <c r="AP5">
+        <v>2950</v>
+      </c>
+      <c r="AQ5">
+        <v>3000</v>
+      </c>
+      <c r="AR5">
+        <v>3050</v>
+      </c>
+      <c r="AS5">
+        <v>3100</v>
+      </c>
+      <c r="AT5">
+        <v>3150</v>
+      </c>
+      <c r="AU5">
+        <v>3200</v>
+      </c>
+      <c r="AV5">
+        <v>3250</v>
+      </c>
+      <c r="AW5">
+        <v>3300</v>
+      </c>
+      <c r="AX5">
+        <v>3350</v>
+      </c>
+      <c r="AY5">
+        <v>3400</v>
+      </c>
+      <c r="AZ5">
+        <v>3350</v>
+      </c>
+      <c r="BA5">
+        <v>3300</v>
+      </c>
+      <c r="BB5">
+        <v>3250</v>
+      </c>
+      <c r="BC5">
+        <v>3200</v>
+      </c>
+      <c r="BD5">
+        <v>3150</v>
+      </c>
+      <c r="BE5">
+        <v>3100</v>
+      </c>
+      <c r="BF5">
+        <v>3050</v>
+      </c>
+      <c r="BG5">
+        <v>3000</v>
+      </c>
+      <c r="BH5">
+        <v>2950</v>
+      </c>
+      <c r="BI5">
+        <v>2900</v>
+      </c>
+      <c r="BJ5">
+        <v>2850</v>
+      </c>
+      <c r="BK5">
+        <v>2800</v>
+      </c>
+      <c r="BL5">
+        <v>2750</v>
+      </c>
+      <c r="BM5">
+        <v>2700</v>
+      </c>
+      <c r="BN5">
+        <v>2650</v>
+      </c>
+      <c r="BO5">
+        <v>2600</v>
+      </c>
+      <c r="BP5">
+        <v>2550</v>
+      </c>
+      <c r="BQ5">
+        <v>2500</v>
+      </c>
+      <c r="BR5">
+        <v>2450</v>
+      </c>
+      <c r="BS5">
+        <v>2400</v>
+      </c>
+      <c r="BT5">
+        <v>2350</v>
+      </c>
+      <c r="BU5">
+        <v>2300</v>
+      </c>
+      <c r="BV5">
+        <v>2250</v>
+      </c>
+      <c r="BW5">
+        <v>2200</v>
+      </c>
+      <c r="BX5">
+        <v>2150</v>
+      </c>
+      <c r="BY5">
+        <v>2100</v>
+      </c>
+      <c r="BZ5">
+        <v>2050</v>
+      </c>
+      <c r="CA5">
+        <v>2000</v>
+      </c>
+      <c r="CB5">
+        <v>1950</v>
+      </c>
+      <c r="CC5">
+        <v>1900</v>
+      </c>
+      <c r="CD5">
+        <v>1850</v>
+      </c>
+      <c r="CE5">
+        <v>1800</v>
+      </c>
+      <c r="CF5">
+        <v>1750</v>
+      </c>
+      <c r="CG5">
+        <v>1700</v>
+      </c>
+      <c r="CH5">
+        <v>1650</v>
+      </c>
+      <c r="CI5">
+        <v>1600</v>
+      </c>
+      <c r="CJ5">
+        <v>1550</v>
+      </c>
+      <c r="CK5">
+        <v>1500</v>
+      </c>
+      <c r="CL5">
+        <v>1450</v>
+      </c>
+      <c r="CM5">
+        <v>1400</v>
+      </c>
+      <c r="CN5">
+        <v>1350</v>
+      </c>
+      <c r="CO5">
+        <v>1300</v>
+      </c>
+      <c r="CP5">
+        <v>1250</v>
+      </c>
+      <c r="CQ5">
+        <v>1200</v>
+      </c>
+      <c r="CR5">
+        <v>1150</v>
+      </c>
+      <c r="CS5">
+        <v>1100</v>
+      </c>
+      <c r="CT5">
+        <v>1050</v>
+      </c>
+      <c r="CU5">
+        <v>1000</v>
+      </c>
+      <c r="CV5">
+        <v>1050</v>
+      </c>
+      <c r="CW5">
+        <v>1100</v>
+      </c>
+      <c r="CX5">
+        <v>1150</v>
+      </c>
+      <c r="CY5">
+        <v>1200</v>
+      </c>
+      <c r="CZ5">
+        <v>1250</v>
+      </c>
+      <c r="DA5">
+        <v>1300</v>
+      </c>
+      <c r="DB5">
+        <v>1350</v>
+      </c>
+      <c r="DC5">
+        <v>1400</v>
+      </c>
+      <c r="DD5">
+        <v>1450</v>
+      </c>
+      <c r="DE5">
+        <v>1500</v>
+      </c>
+      <c r="DF5">
+        <v>1550</v>
+      </c>
+      <c r="DG5">
+        <v>1600</v>
+      </c>
+      <c r="DH5">
+        <v>1650</v>
+      </c>
+      <c r="DI5">
+        <v>1700</v>
+      </c>
+      <c r="DJ5">
+        <v>1750</v>
+      </c>
+      <c r="DK5">
+        <v>1800</v>
+      </c>
+      <c r="DL5">
+        <v>1850</v>
+      </c>
+      <c r="DM5">
+        <v>1900</v>
+      </c>
+      <c r="DN5">
+        <v>1950</v>
+      </c>
+      <c r="DO5">
+        <v>2000</v>
+      </c>
+      <c r="DP5">
+        <v>2050</v>
+      </c>
+      <c r="DQ5">
+        <v>2100</v>
+      </c>
+      <c r="DR5">
+        <v>2150</v>
+      </c>
+      <c r="DS5">
+        <v>2200</v>
+      </c>
+      <c r="DT5">
+        <v>2250</v>
+      </c>
+      <c r="DU5">
+        <v>2300</v>
+      </c>
+      <c r="DV5">
+        <v>2350</v>
+      </c>
+      <c r="DW5">
+        <v>2400</v>
+      </c>
+      <c r="DX5">
+        <v>2450</v>
+      </c>
+      <c r="DY5">
+        <v>2500</v>
+      </c>
+      <c r="DZ5">
+        <v>2550</v>
+      </c>
+      <c r="EA5">
+        <v>2600</v>
+      </c>
+      <c r="EB5">
+        <v>2650</v>
+      </c>
+      <c r="EC5">
+        <v>2700</v>
+      </c>
+      <c r="ED5">
+        <v>2750</v>
+      </c>
+      <c r="EE5">
+        <v>2800</v>
+      </c>
+      <c r="EF5">
+        <v>2850</v>
+      </c>
+      <c r="EG5">
+        <v>2900</v>
+      </c>
+      <c r="EH5">
+        <v>2950</v>
+      </c>
+      <c r="EI5">
+        <v>3000</v>
+      </c>
+      <c r="EJ5">
+        <v>3050</v>
+      </c>
+      <c r="EK5">
+        <v>3100</v>
+      </c>
+      <c r="EL5">
+        <v>3150</v>
+      </c>
+      <c r="EM5">
+        <v>3200</v>
+      </c>
+      <c r="EN5">
+        <v>3250</v>
+      </c>
+      <c r="EO5">
+        <v>3300</v>
+      </c>
+      <c r="EP5">
+        <v>3350</v>
+      </c>
+      <c r="EQ5">
+        <v>3400</v>
+      </c>
+      <c r="ER5">
+        <v>3350</v>
+      </c>
+      <c r="ES5">
+        <v>3300</v>
+      </c>
+      <c r="ET5">
+        <v>3250</v>
+      </c>
+      <c r="EU5">
+        <v>3200</v>
+      </c>
+      <c r="EV5">
+        <v>3150</v>
+      </c>
+      <c r="EW5">
+        <v>3100</v>
+      </c>
+      <c r="EX5">
+        <v>3050</v>
+      </c>
+      <c r="EY5">
+        <v>3000</v>
+      </c>
+      <c r="EZ5">
+        <v>2950</v>
+      </c>
+      <c r="FA5">
+        <v>2900</v>
+      </c>
+      <c r="FB5">
+        <v>2850</v>
+      </c>
+      <c r="FC5">
+        <v>2800</v>
+      </c>
+      <c r="FD5">
+        <v>2750</v>
+      </c>
+      <c r="FE5">
+        <v>2700</v>
+      </c>
+      <c r="FF5">
+        <v>2650</v>
+      </c>
+      <c r="FG5">
+        <v>2600</v>
+      </c>
+      <c r="FH5">
+        <v>2550</v>
+      </c>
+      <c r="FI5">
+        <v>2500</v>
+      </c>
+      <c r="FJ5">
+        <v>2450</v>
+      </c>
+      <c r="FK5">
+        <v>2400</v>
+      </c>
+      <c r="FL5">
+        <v>2350</v>
+      </c>
+      <c r="FM5">
+        <v>2300</v>
+      </c>
+      <c r="FN5">
+        <v>2250</v>
+      </c>
+      <c r="FO5">
+        <v>2200</v>
+      </c>
+      <c r="FP5">
+        <v>2150</v>
+      </c>
+      <c r="FQ5">
+        <v>2100</v>
+      </c>
+      <c r="FR5">
+        <v>2050</v>
+      </c>
+      <c r="FS5">
+        <v>2000</v>
+      </c>
+      <c r="FT5">
+        <v>1950</v>
+      </c>
+      <c r="FU5">
+        <v>1900</v>
+      </c>
+      <c r="FV5">
+        <v>1850</v>
+      </c>
+      <c r="FW5">
+        <v>1800</v>
+      </c>
+      <c r="FX5">
+        <v>1750</v>
+      </c>
+      <c r="FY5">
+        <v>1700</v>
+      </c>
+      <c r="FZ5">
+        <v>1650</v>
+      </c>
+      <c r="GA5">
+        <v>1600</v>
+      </c>
+      <c r="GB5">
+        <v>1550</v>
+      </c>
+      <c r="GC5">
+        <v>1500</v>
+      </c>
+      <c r="GD5">
+        <v>1450</v>
+      </c>
+      <c r="GE5">
+        <v>1400</v>
+      </c>
+      <c r="GF5">
+        <v>1350</v>
+      </c>
+      <c r="GG5">
+        <v>1300</v>
+      </c>
+      <c r="GH5">
+        <v>1250</v>
+      </c>
+      <c r="GI5">
+        <v>1200</v>
+      </c>
+      <c r="GJ5">
+        <v>1150</v>
+      </c>
+      <c r="GK5">
+        <v>1100</v>
+      </c>
+      <c r="GL5">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>110</v>
-      </c>
-      <c r="E3">
-        <v>90</v>
-      </c>
-      <c r="F3">
-        <v>122</v>
-      </c>
-      <c r="G3">
-        <v>140</v>
-      </c>
-      <c r="H3">
-        <v>150</v>
-      </c>
-      <c r="I3">
-        <v>260</v>
-      </c>
-      <c r="J3">
-        <v>300</v>
-      </c>
-      <c r="K3">
-        <v>400</v>
-      </c>
-      <c r="L3">
-        <v>410</v>
-      </c>
-      <c r="M3">
-        <v>420</v>
-      </c>
-      <c r="N3">
-        <v>440</v>
-      </c>
-      <c r="O3">
-        <v>442</v>
-      </c>
-      <c r="P3">
-        <v>452</v>
-      </c>
-      <c r="Q3">
-        <v>430</v>
-      </c>
-      <c r="R3">
-        <v>422</v>
-      </c>
-      <c r="S3">
-        <v>320</v>
-      </c>
-      <c r="T3">
-        <v>233</v>
-      </c>
-      <c r="U3">
-        <v>150</v>
-      </c>
-      <c r="V3">
-        <v>200</v>
-      </c>
-      <c r="W3">
-        <v>210</v>
-      </c>
-      <c r="X3">
-        <v>160</v>
-      </c>
-      <c r="Y3">
-        <v>100</v>
-      </c>
-      <c r="Z3">
-        <v>101</v>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>1050</v>
+      </c>
+      <c r="E6">
+        <v>1100</v>
+      </c>
+      <c r="F6">
+        <v>1150</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+      <c r="H6">
+        <v>1250</v>
+      </c>
+      <c r="I6">
+        <v>1300</v>
+      </c>
+      <c r="J6">
+        <v>1350</v>
+      </c>
+      <c r="K6">
+        <v>1400</v>
+      </c>
+      <c r="L6">
+        <v>1450</v>
+      </c>
+      <c r="M6">
+        <v>1500</v>
+      </c>
+      <c r="N6">
+        <v>1550</v>
+      </c>
+      <c r="O6">
+        <v>1600</v>
+      </c>
+      <c r="P6">
+        <v>1650</v>
+      </c>
+      <c r="Q6">
+        <v>1700</v>
+      </c>
+      <c r="R6">
+        <v>1750</v>
+      </c>
+      <c r="S6">
+        <v>1800</v>
+      </c>
+      <c r="T6">
+        <v>1850</v>
+      </c>
+      <c r="U6">
+        <v>1900</v>
+      </c>
+      <c r="V6">
+        <v>1950</v>
+      </c>
+      <c r="W6">
+        <v>2000</v>
+      </c>
+      <c r="X6">
+        <v>2050</v>
+      </c>
+      <c r="Y6">
+        <v>2100</v>
+      </c>
+      <c r="Z6">
+        <v>2150</v>
+      </c>
+      <c r="AA6">
+        <v>2200</v>
+      </c>
+      <c r="AB6">
+        <v>2250</v>
+      </c>
+      <c r="AC6">
+        <v>2300</v>
+      </c>
+      <c r="AD6">
+        <v>2350</v>
+      </c>
+      <c r="AE6">
+        <v>2400</v>
+      </c>
+      <c r="AF6">
+        <v>2450</v>
+      </c>
+      <c r="AG6">
+        <v>2500</v>
+      </c>
+      <c r="AH6">
+        <v>2550</v>
+      </c>
+      <c r="AI6">
+        <v>2600</v>
+      </c>
+      <c r="AJ6">
+        <v>2650</v>
+      </c>
+      <c r="AK6">
+        <v>2700</v>
+      </c>
+      <c r="AL6">
+        <v>2750</v>
+      </c>
+      <c r="AM6">
+        <v>2800</v>
+      </c>
+      <c r="AN6">
+        <v>2850</v>
+      </c>
+      <c r="AO6">
+        <v>2900</v>
+      </c>
+      <c r="AP6">
+        <v>2950</v>
+      </c>
+      <c r="AQ6">
+        <v>3000</v>
+      </c>
+      <c r="AR6">
+        <v>3050</v>
+      </c>
+      <c r="AS6">
+        <v>3100</v>
+      </c>
+      <c r="AT6">
+        <v>3150</v>
+      </c>
+      <c r="AU6">
+        <v>3200</v>
+      </c>
+      <c r="AV6">
+        <v>3250</v>
+      </c>
+      <c r="AW6">
+        <v>3300</v>
+      </c>
+      <c r="AX6">
+        <v>3350</v>
+      </c>
+      <c r="AY6">
+        <v>3400</v>
+      </c>
+      <c r="AZ6">
+        <v>3350</v>
+      </c>
+      <c r="BA6">
+        <v>3300</v>
+      </c>
+      <c r="BB6">
+        <v>3250</v>
+      </c>
+      <c r="BC6">
+        <v>3200</v>
+      </c>
+      <c r="BD6">
+        <v>3150</v>
+      </c>
+      <c r="BE6">
+        <v>3100</v>
+      </c>
+      <c r="BF6">
+        <v>3050</v>
+      </c>
+      <c r="BG6">
+        <v>3000</v>
+      </c>
+      <c r="BH6">
+        <v>2950</v>
+      </c>
+      <c r="BI6">
+        <v>2900</v>
+      </c>
+      <c r="BJ6">
+        <v>2850</v>
+      </c>
+      <c r="BK6">
+        <v>2800</v>
+      </c>
+      <c r="BL6">
+        <v>2750</v>
+      </c>
+      <c r="BM6">
+        <v>2700</v>
+      </c>
+      <c r="BN6">
+        <v>2650</v>
+      </c>
+      <c r="BO6">
+        <v>2600</v>
+      </c>
+      <c r="BP6">
+        <v>2550</v>
+      </c>
+      <c r="BQ6">
+        <v>2500</v>
+      </c>
+      <c r="BR6">
+        <v>2450</v>
+      </c>
+      <c r="BS6">
+        <v>2400</v>
+      </c>
+      <c r="BT6">
+        <v>2350</v>
+      </c>
+      <c r="BU6">
+        <v>2300</v>
+      </c>
+      <c r="BV6">
+        <v>2250</v>
+      </c>
+      <c r="BW6">
+        <v>2200</v>
+      </c>
+      <c r="BX6">
+        <v>2150</v>
+      </c>
+      <c r="BY6">
+        <v>2100</v>
+      </c>
+      <c r="BZ6">
+        <v>2050</v>
+      </c>
+      <c r="CA6">
+        <v>2000</v>
+      </c>
+      <c r="CB6">
+        <v>1950</v>
+      </c>
+      <c r="CC6">
+        <v>1900</v>
+      </c>
+      <c r="CD6">
+        <v>1850</v>
+      </c>
+      <c r="CE6">
+        <v>1800</v>
+      </c>
+      <c r="CF6">
+        <v>1750</v>
+      </c>
+      <c r="CG6">
+        <v>1700</v>
+      </c>
+      <c r="CH6">
+        <v>1650</v>
+      </c>
+      <c r="CI6">
+        <v>1600</v>
+      </c>
+      <c r="CJ6">
+        <v>1550</v>
+      </c>
+      <c r="CK6">
+        <v>1500</v>
+      </c>
+      <c r="CL6">
+        <v>1450</v>
+      </c>
+      <c r="CM6">
+        <v>1400</v>
+      </c>
+      <c r="CN6">
+        <v>1350</v>
+      </c>
+      <c r="CO6">
+        <v>1300</v>
+      </c>
+      <c r="CP6">
+        <v>1250</v>
+      </c>
+      <c r="CQ6">
+        <v>1200</v>
+      </c>
+      <c r="CR6">
+        <v>1150</v>
+      </c>
+      <c r="CS6">
+        <v>1100</v>
+      </c>
+      <c r="CT6">
+        <v>1050</v>
+      </c>
+      <c r="CU6">
+        <v>1000</v>
+      </c>
+      <c r="CV6">
+        <v>1050</v>
+      </c>
+      <c r="CW6">
+        <v>1100</v>
+      </c>
+      <c r="CX6">
+        <v>1150</v>
+      </c>
+      <c r="CY6">
+        <v>1200</v>
+      </c>
+      <c r="CZ6">
+        <v>1250</v>
+      </c>
+      <c r="DA6">
+        <v>1300</v>
+      </c>
+      <c r="DB6">
+        <v>1350</v>
+      </c>
+      <c r="DC6">
+        <v>1400</v>
+      </c>
+      <c r="DD6">
+        <v>1450</v>
+      </c>
+      <c r="DE6">
+        <v>1500</v>
+      </c>
+      <c r="DF6">
+        <v>1550</v>
+      </c>
+      <c r="DG6">
+        <v>1600</v>
+      </c>
+      <c r="DH6">
+        <v>1650</v>
+      </c>
+      <c r="DI6">
+        <v>1700</v>
+      </c>
+      <c r="DJ6">
+        <v>1750</v>
+      </c>
+      <c r="DK6">
+        <v>1800</v>
+      </c>
+      <c r="DL6">
+        <v>1850</v>
+      </c>
+      <c r="DM6">
+        <v>1900</v>
+      </c>
+      <c r="DN6">
+        <v>1950</v>
+      </c>
+      <c r="DO6">
+        <v>2000</v>
+      </c>
+      <c r="DP6">
+        <v>2050</v>
+      </c>
+      <c r="DQ6">
+        <v>2100</v>
+      </c>
+      <c r="DR6">
+        <v>2150</v>
+      </c>
+      <c r="DS6">
+        <v>2200</v>
+      </c>
+      <c r="DT6">
+        <v>2250</v>
+      </c>
+      <c r="DU6">
+        <v>2300</v>
+      </c>
+      <c r="DV6">
+        <v>2350</v>
+      </c>
+      <c r="DW6">
+        <v>2400</v>
+      </c>
+      <c r="DX6">
+        <v>2450</v>
+      </c>
+      <c r="DY6">
+        <v>2500</v>
+      </c>
+      <c r="DZ6">
+        <v>2550</v>
+      </c>
+      <c r="EA6">
+        <v>2600</v>
+      </c>
+      <c r="EB6">
+        <v>2650</v>
+      </c>
+      <c r="EC6">
+        <v>2700</v>
+      </c>
+      <c r="ED6">
+        <v>2750</v>
+      </c>
+      <c r="EE6">
+        <v>2800</v>
+      </c>
+      <c r="EF6">
+        <v>2850</v>
+      </c>
+      <c r="EG6">
+        <v>2900</v>
+      </c>
+      <c r="EH6">
+        <v>2950</v>
+      </c>
+      <c r="EI6">
+        <v>3000</v>
+      </c>
+      <c r="EJ6">
+        <v>3050</v>
+      </c>
+      <c r="EK6">
+        <v>3100</v>
+      </c>
+      <c r="EL6">
+        <v>3150</v>
+      </c>
+      <c r="EM6">
+        <v>3200</v>
+      </c>
+      <c r="EN6">
+        <v>3250</v>
+      </c>
+      <c r="EO6">
+        <v>3300</v>
+      </c>
+      <c r="EP6">
+        <v>3350</v>
+      </c>
+      <c r="EQ6">
+        <v>3400</v>
+      </c>
+      <c r="ER6">
+        <v>3350</v>
+      </c>
+      <c r="ES6">
+        <v>3300</v>
+      </c>
+      <c r="ET6">
+        <v>3250</v>
+      </c>
+      <c r="EU6">
+        <v>3200</v>
+      </c>
+      <c r="EV6">
+        <v>3150</v>
+      </c>
+      <c r="EW6">
+        <v>3100</v>
+      </c>
+      <c r="EX6">
+        <v>3050</v>
+      </c>
+      <c r="EY6">
+        <v>3000</v>
+      </c>
+      <c r="EZ6">
+        <v>2950</v>
+      </c>
+      <c r="FA6">
+        <v>2900</v>
+      </c>
+      <c r="FB6">
+        <v>2850</v>
+      </c>
+      <c r="FC6">
+        <v>2800</v>
+      </c>
+      <c r="FD6">
+        <v>2750</v>
+      </c>
+      <c r="FE6">
+        <v>2700</v>
+      </c>
+      <c r="FF6">
+        <v>2650</v>
+      </c>
+      <c r="FG6">
+        <v>2600</v>
+      </c>
+      <c r="FH6">
+        <v>2550</v>
+      </c>
+      <c r="FI6">
+        <v>2500</v>
+      </c>
+      <c r="FJ6">
+        <v>2450</v>
+      </c>
+      <c r="FK6">
+        <v>2400</v>
+      </c>
+      <c r="FL6">
+        <v>2350</v>
+      </c>
+      <c r="FM6">
+        <v>2300</v>
+      </c>
+      <c r="FN6">
+        <v>2250</v>
+      </c>
+      <c r="FO6">
+        <v>2200</v>
+      </c>
+      <c r="FP6">
+        <v>2150</v>
+      </c>
+      <c r="FQ6">
+        <v>2100</v>
+      </c>
+      <c r="FR6">
+        <v>2050</v>
+      </c>
+      <c r="FS6">
+        <v>2000</v>
+      </c>
+      <c r="FT6">
+        <v>1950</v>
+      </c>
+      <c r="FU6">
+        <v>1900</v>
+      </c>
+      <c r="FV6">
+        <v>1850</v>
+      </c>
+      <c r="FW6">
+        <v>1800</v>
+      </c>
+      <c r="FX6">
+        <v>1750</v>
+      </c>
+      <c r="FY6">
+        <v>1700</v>
+      </c>
+      <c r="FZ6">
+        <v>1650</v>
+      </c>
+      <c r="GA6">
+        <v>1600</v>
+      </c>
+      <c r="GB6">
+        <v>1550</v>
+      </c>
+      <c r="GC6">
+        <v>1500</v>
+      </c>
+      <c r="GD6">
+        <v>1450</v>
+      </c>
+      <c r="GE6">
+        <v>1400</v>
+      </c>
+      <c r="GF6">
+        <v>1350</v>
+      </c>
+      <c r="GG6">
+        <v>1300</v>
+      </c>
+      <c r="GH6">
+        <v>1250</v>
+      </c>
+      <c r="GI6">
+        <v>1200</v>
+      </c>
+      <c r="GJ6">
+        <v>1150</v>
+      </c>
+      <c r="GK6">
+        <v>1100</v>
+      </c>
+      <c r="GL6">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>1050</v>
+      </c>
+      <c r="E7">
+        <v>1100</v>
+      </c>
+      <c r="F7">
+        <v>1150</v>
+      </c>
+      <c r="G7">
+        <v>1200</v>
+      </c>
+      <c r="H7">
+        <v>1250</v>
+      </c>
+      <c r="I7">
+        <v>1300</v>
+      </c>
+      <c r="J7">
+        <v>1350</v>
+      </c>
+      <c r="K7">
+        <v>1400</v>
+      </c>
+      <c r="L7">
+        <v>1450</v>
+      </c>
+      <c r="M7">
+        <v>1500</v>
+      </c>
+      <c r="N7">
+        <v>1550</v>
+      </c>
+      <c r="O7">
+        <v>1600</v>
+      </c>
+      <c r="P7">
+        <v>1650</v>
+      </c>
+      <c r="Q7">
+        <v>1700</v>
+      </c>
+      <c r="R7">
+        <v>1750</v>
+      </c>
+      <c r="S7">
+        <v>1800</v>
+      </c>
+      <c r="T7">
+        <v>1850</v>
+      </c>
+      <c r="U7">
+        <v>1900</v>
+      </c>
+      <c r="V7">
+        <v>1950</v>
+      </c>
+      <c r="W7">
+        <v>2000</v>
+      </c>
+      <c r="X7">
+        <v>2050</v>
+      </c>
+      <c r="Y7">
+        <v>2100</v>
+      </c>
+      <c r="Z7">
+        <v>2150</v>
+      </c>
+      <c r="AA7">
+        <v>2200</v>
+      </c>
+      <c r="AB7">
+        <v>2250</v>
+      </c>
+      <c r="AC7">
+        <v>2300</v>
+      </c>
+      <c r="AD7">
+        <v>2350</v>
+      </c>
+      <c r="AE7">
+        <v>2400</v>
+      </c>
+      <c r="AF7">
+        <v>2450</v>
+      </c>
+      <c r="AG7">
+        <v>2500</v>
+      </c>
+      <c r="AH7">
+        <v>2550</v>
+      </c>
+      <c r="AI7">
+        <v>2600</v>
+      </c>
+      <c r="AJ7">
+        <v>2650</v>
+      </c>
+      <c r="AK7">
+        <v>2700</v>
+      </c>
+      <c r="AL7">
+        <v>2750</v>
+      </c>
+      <c r="AM7">
+        <v>2800</v>
+      </c>
+      <c r="AN7">
+        <v>2850</v>
+      </c>
+      <c r="AO7">
+        <v>2900</v>
+      </c>
+      <c r="AP7">
+        <v>2950</v>
+      </c>
+      <c r="AQ7">
+        <v>3000</v>
+      </c>
+      <c r="AR7">
+        <v>3050</v>
+      </c>
+      <c r="AS7">
+        <v>3100</v>
+      </c>
+      <c r="AT7">
+        <v>3150</v>
+      </c>
+      <c r="AU7">
+        <v>3200</v>
+      </c>
+      <c r="AV7">
+        <v>3250</v>
+      </c>
+      <c r="AW7">
+        <v>3300</v>
+      </c>
+      <c r="AX7">
+        <v>3350</v>
+      </c>
+      <c r="AY7">
+        <v>3400</v>
+      </c>
+      <c r="AZ7">
+        <v>3350</v>
+      </c>
+      <c r="BA7">
+        <v>3300</v>
+      </c>
+      <c r="BB7">
+        <v>3250</v>
+      </c>
+      <c r="BC7">
+        <v>3200</v>
+      </c>
+      <c r="BD7">
+        <v>3150</v>
+      </c>
+      <c r="BE7">
+        <v>3100</v>
+      </c>
+      <c r="BF7">
+        <v>3050</v>
+      </c>
+      <c r="BG7">
+        <v>3000</v>
+      </c>
+      <c r="BH7">
+        <v>2950</v>
+      </c>
+      <c r="BI7">
+        <v>2900</v>
+      </c>
+      <c r="BJ7">
+        <v>2850</v>
+      </c>
+      <c r="BK7">
+        <v>2800</v>
+      </c>
+      <c r="BL7">
+        <v>2750</v>
+      </c>
+      <c r="BM7">
+        <v>2700</v>
+      </c>
+      <c r="BN7">
+        <v>2650</v>
+      </c>
+      <c r="BO7">
+        <v>2600</v>
+      </c>
+      <c r="BP7">
+        <v>2550</v>
+      </c>
+      <c r="BQ7">
+        <v>2500</v>
+      </c>
+      <c r="BR7">
+        <v>2450</v>
+      </c>
+      <c r="BS7">
+        <v>2400</v>
+      </c>
+      <c r="BT7">
+        <v>2350</v>
+      </c>
+      <c r="BU7">
+        <v>2300</v>
+      </c>
+      <c r="BV7">
+        <v>2250</v>
+      </c>
+      <c r="BW7">
+        <v>2200</v>
+      </c>
+      <c r="BX7">
+        <v>2150</v>
+      </c>
+      <c r="BY7">
+        <v>2100</v>
+      </c>
+      <c r="BZ7">
+        <v>2050</v>
+      </c>
+      <c r="CA7">
+        <v>2000</v>
+      </c>
+      <c r="CB7">
+        <v>1950</v>
+      </c>
+      <c r="CC7">
+        <v>1900</v>
+      </c>
+      <c r="CD7">
+        <v>1850</v>
+      </c>
+      <c r="CE7">
+        <v>1800</v>
+      </c>
+      <c r="CF7">
+        <v>1750</v>
+      </c>
+      <c r="CG7">
+        <v>1700</v>
+      </c>
+      <c r="CH7">
+        <v>1650</v>
+      </c>
+      <c r="CI7">
+        <v>1600</v>
+      </c>
+      <c r="CJ7">
+        <v>1550</v>
+      </c>
+      <c r="CK7">
+        <v>1500</v>
+      </c>
+      <c r="CL7">
+        <v>1450</v>
+      </c>
+      <c r="CM7">
+        <v>1400</v>
+      </c>
+      <c r="CN7">
+        <v>1350</v>
+      </c>
+      <c r="CO7">
+        <v>1300</v>
+      </c>
+      <c r="CP7">
+        <v>1250</v>
+      </c>
+      <c r="CQ7">
+        <v>1200</v>
+      </c>
+      <c r="CR7">
+        <v>1150</v>
+      </c>
+      <c r="CS7">
+        <v>1100</v>
+      </c>
+      <c r="CT7">
+        <v>1050</v>
+      </c>
+      <c r="CU7">
+        <v>1000</v>
+      </c>
+      <c r="CV7">
+        <v>1050</v>
+      </c>
+      <c r="CW7">
+        <v>1100</v>
+      </c>
+      <c r="CX7">
+        <v>1150</v>
+      </c>
+      <c r="CY7">
+        <v>1200</v>
+      </c>
+      <c r="CZ7">
+        <v>1250</v>
+      </c>
+      <c r="DA7">
+        <v>1300</v>
+      </c>
+      <c r="DB7">
+        <v>1350</v>
+      </c>
+      <c r="DC7">
+        <v>1400</v>
+      </c>
+      <c r="DD7">
+        <v>1450</v>
+      </c>
+      <c r="DE7">
+        <v>1500</v>
+      </c>
+      <c r="DF7">
+        <v>1550</v>
+      </c>
+      <c r="DG7">
+        <v>1600</v>
+      </c>
+      <c r="DH7">
+        <v>1650</v>
+      </c>
+      <c r="DI7">
+        <v>1700</v>
+      </c>
+      <c r="DJ7">
+        <v>1750</v>
+      </c>
+      <c r="DK7">
+        <v>1800</v>
+      </c>
+      <c r="DL7">
+        <v>1850</v>
+      </c>
+      <c r="DM7">
+        <v>1900</v>
+      </c>
+      <c r="DN7">
+        <v>1950</v>
+      </c>
+      <c r="DO7">
+        <v>2000</v>
+      </c>
+      <c r="DP7">
+        <v>2050</v>
+      </c>
+      <c r="DQ7">
+        <v>2100</v>
+      </c>
+      <c r="DR7">
+        <v>2150</v>
+      </c>
+      <c r="DS7">
+        <v>2200</v>
+      </c>
+      <c r="DT7">
+        <v>2250</v>
+      </c>
+      <c r="DU7">
+        <v>2300</v>
+      </c>
+      <c r="DV7">
+        <v>2350</v>
+      </c>
+      <c r="DW7">
+        <v>2400</v>
+      </c>
+      <c r="DX7">
+        <v>2450</v>
+      </c>
+      <c r="DY7">
+        <v>2500</v>
+      </c>
+      <c r="DZ7">
+        <v>2550</v>
+      </c>
+      <c r="EA7">
+        <v>2600</v>
+      </c>
+      <c r="EB7">
+        <v>2650</v>
+      </c>
+      <c r="EC7">
+        <v>2700</v>
+      </c>
+      <c r="ED7">
+        <v>2750</v>
+      </c>
+      <c r="EE7">
+        <v>2800</v>
+      </c>
+      <c r="EF7">
+        <v>2850</v>
+      </c>
+      <c r="EG7">
+        <v>2900</v>
+      </c>
+      <c r="EH7">
+        <v>2950</v>
+      </c>
+      <c r="EI7">
+        <v>3000</v>
+      </c>
+      <c r="EJ7">
+        <v>3050</v>
+      </c>
+      <c r="EK7">
+        <v>3100</v>
+      </c>
+      <c r="EL7">
+        <v>3150</v>
+      </c>
+      <c r="EM7">
+        <v>3200</v>
+      </c>
+      <c r="EN7">
+        <v>3250</v>
+      </c>
+      <c r="EO7">
+        <v>3300</v>
+      </c>
+      <c r="EP7">
+        <v>3350</v>
+      </c>
+      <c r="EQ7">
+        <v>3400</v>
+      </c>
+      <c r="ER7">
+        <v>3350</v>
+      </c>
+      <c r="ES7">
+        <v>3300</v>
+      </c>
+      <c r="ET7">
+        <v>3250</v>
+      </c>
+      <c r="EU7">
+        <v>3200</v>
+      </c>
+      <c r="EV7">
+        <v>3150</v>
+      </c>
+      <c r="EW7">
+        <v>3100</v>
+      </c>
+      <c r="EX7">
+        <v>3050</v>
+      </c>
+      <c r="EY7">
+        <v>3000</v>
+      </c>
+      <c r="EZ7">
+        <v>2950</v>
+      </c>
+      <c r="FA7">
+        <v>2900</v>
+      </c>
+      <c r="FB7">
+        <v>2850</v>
+      </c>
+      <c r="FC7">
+        <v>2800</v>
+      </c>
+      <c r="FD7">
+        <v>2750</v>
+      </c>
+      <c r="FE7">
+        <v>2700</v>
+      </c>
+      <c r="FF7">
+        <v>2650</v>
+      </c>
+      <c r="FG7">
+        <v>2600</v>
+      </c>
+      <c r="FH7">
+        <v>2550</v>
+      </c>
+      <c r="FI7">
+        <v>2500</v>
+      </c>
+      <c r="FJ7">
+        <v>2450</v>
+      </c>
+      <c r="FK7">
+        <v>2400</v>
+      </c>
+      <c r="FL7">
+        <v>2350</v>
+      </c>
+      <c r="FM7">
+        <v>2300</v>
+      </c>
+      <c r="FN7">
+        <v>2250</v>
+      </c>
+      <c r="FO7">
+        <v>2200</v>
+      </c>
+      <c r="FP7">
+        <v>2150</v>
+      </c>
+      <c r="FQ7">
+        <v>2100</v>
+      </c>
+      <c r="FR7">
+        <v>2050</v>
+      </c>
+      <c r="FS7">
+        <v>2000</v>
+      </c>
+      <c r="FT7">
+        <v>1950</v>
+      </c>
+      <c r="FU7">
+        <v>1900</v>
+      </c>
+      <c r="FV7">
+        <v>1850</v>
+      </c>
+      <c r="FW7">
+        <v>1800</v>
+      </c>
+      <c r="FX7">
+        <v>1750</v>
+      </c>
+      <c r="FY7">
+        <v>1700</v>
+      </c>
+      <c r="FZ7">
+        <v>1650</v>
+      </c>
+      <c r="GA7">
+        <v>1600</v>
+      </c>
+      <c r="GB7">
+        <v>1550</v>
+      </c>
+      <c r="GC7">
+        <v>1500</v>
+      </c>
+      <c r="GD7">
+        <v>1450</v>
+      </c>
+      <c r="GE7">
+        <v>1400</v>
+      </c>
+      <c r="GF7">
+        <v>1350</v>
+      </c>
+      <c r="GG7">
+        <v>1300</v>
+      </c>
+      <c r="GH7">
+        <v>1250</v>
+      </c>
+      <c r="GI7">
+        <v>1200</v>
+      </c>
+      <c r="GJ7">
+        <v>1150</v>
+      </c>
+      <c r="GK7">
+        <v>1100</v>
+      </c>
+      <c r="GL7">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>1050</v>
+      </c>
+      <c r="E8">
+        <v>1100</v>
+      </c>
+      <c r="F8">
+        <v>1150</v>
+      </c>
+      <c r="G8">
+        <v>1200</v>
+      </c>
+      <c r="H8">
+        <v>1250</v>
+      </c>
+      <c r="I8">
+        <v>1300</v>
+      </c>
+      <c r="J8">
+        <v>1350</v>
+      </c>
+      <c r="K8">
+        <v>1400</v>
+      </c>
+      <c r="L8">
+        <v>1450</v>
+      </c>
+      <c r="M8">
+        <v>1500</v>
+      </c>
+      <c r="N8">
+        <v>1550</v>
+      </c>
+      <c r="O8">
+        <v>1600</v>
+      </c>
+      <c r="P8">
+        <v>1650</v>
+      </c>
+      <c r="Q8">
+        <v>1700</v>
+      </c>
+      <c r="R8">
+        <v>1750</v>
+      </c>
+      <c r="S8">
+        <v>1800</v>
+      </c>
+      <c r="T8">
+        <v>1850</v>
+      </c>
+      <c r="U8">
+        <v>1900</v>
+      </c>
+      <c r="V8">
+        <v>1950</v>
+      </c>
+      <c r="W8">
+        <v>2000</v>
+      </c>
+      <c r="X8">
+        <v>2050</v>
+      </c>
+      <c r="Y8">
+        <v>2100</v>
+      </c>
+      <c r="Z8">
+        <v>2150</v>
+      </c>
+      <c r="AA8">
+        <v>2200</v>
+      </c>
+      <c r="AB8">
+        <v>2250</v>
+      </c>
+      <c r="AC8">
+        <v>2300</v>
+      </c>
+      <c r="AD8">
+        <v>2350</v>
+      </c>
+      <c r="AE8">
+        <v>2400</v>
+      </c>
+      <c r="AF8">
+        <v>2450</v>
+      </c>
+      <c r="AG8">
+        <v>2500</v>
+      </c>
+      <c r="AH8">
+        <v>2550</v>
+      </c>
+      <c r="AI8">
+        <v>2600</v>
+      </c>
+      <c r="AJ8">
+        <v>2650</v>
+      </c>
+      <c r="AK8">
+        <v>2700</v>
+      </c>
+      <c r="AL8">
+        <v>2750</v>
+      </c>
+      <c r="AM8">
+        <v>2800</v>
+      </c>
+      <c r="AN8">
+        <v>2850</v>
+      </c>
+      <c r="AO8">
+        <v>2900</v>
+      </c>
+      <c r="AP8">
+        <v>2950</v>
+      </c>
+      <c r="AQ8">
+        <v>3000</v>
+      </c>
+      <c r="AR8">
+        <v>3050</v>
+      </c>
+      <c r="AS8">
+        <v>3100</v>
+      </c>
+      <c r="AT8">
+        <v>3150</v>
+      </c>
+      <c r="AU8">
+        <v>3200</v>
+      </c>
+      <c r="AV8">
+        <v>3250</v>
+      </c>
+      <c r="AW8">
+        <v>3300</v>
+      </c>
+      <c r="AX8">
+        <v>3350</v>
+      </c>
+      <c r="AY8">
+        <v>3400</v>
+      </c>
+      <c r="AZ8">
+        <v>3350</v>
+      </c>
+      <c r="BA8">
+        <v>3300</v>
+      </c>
+      <c r="BB8">
+        <v>3250</v>
+      </c>
+      <c r="BC8">
+        <v>3200</v>
+      </c>
+      <c r="BD8">
+        <v>3150</v>
+      </c>
+      <c r="BE8">
+        <v>3100</v>
+      </c>
+      <c r="BF8">
+        <v>3050</v>
+      </c>
+      <c r="BG8">
+        <v>3000</v>
+      </c>
+      <c r="BH8">
+        <v>2950</v>
+      </c>
+      <c r="BI8">
+        <v>2900</v>
+      </c>
+      <c r="BJ8">
+        <v>2850</v>
+      </c>
+      <c r="BK8">
+        <v>2800</v>
+      </c>
+      <c r="BL8">
+        <v>2750</v>
+      </c>
+      <c r="BM8">
+        <v>2700</v>
+      </c>
+      <c r="BN8">
+        <v>2650</v>
+      </c>
+      <c r="BO8">
+        <v>2600</v>
+      </c>
+      <c r="BP8">
+        <v>2550</v>
+      </c>
+      <c r="BQ8">
+        <v>2500</v>
+      </c>
+      <c r="BR8">
+        <v>2450</v>
+      </c>
+      <c r="BS8">
+        <v>2400</v>
+      </c>
+      <c r="BT8">
+        <v>2350</v>
+      </c>
+      <c r="BU8">
+        <v>2300</v>
+      </c>
+      <c r="BV8">
+        <v>2250</v>
+      </c>
+      <c r="BW8">
+        <v>2200</v>
+      </c>
+      <c r="BX8">
+        <v>2150</v>
+      </c>
+      <c r="BY8">
+        <v>2100</v>
+      </c>
+      <c r="BZ8">
+        <v>2050</v>
+      </c>
+      <c r="CA8">
+        <v>2000</v>
+      </c>
+      <c r="CB8">
+        <v>1950</v>
+      </c>
+      <c r="CC8">
+        <v>1900</v>
+      </c>
+      <c r="CD8">
+        <v>1850</v>
+      </c>
+      <c r="CE8">
+        <v>1800</v>
+      </c>
+      <c r="CF8">
+        <v>1750</v>
+      </c>
+      <c r="CG8">
+        <v>1700</v>
+      </c>
+      <c r="CH8">
+        <v>1650</v>
+      </c>
+      <c r="CI8">
+        <v>1600</v>
+      </c>
+      <c r="CJ8">
+        <v>1550</v>
+      </c>
+      <c r="CK8">
+        <v>1500</v>
+      </c>
+      <c r="CL8">
+        <v>1450</v>
+      </c>
+      <c r="CM8">
+        <v>1400</v>
+      </c>
+      <c r="CN8">
+        <v>1350</v>
+      </c>
+      <c r="CO8">
+        <v>1300</v>
+      </c>
+      <c r="CP8">
+        <v>1250</v>
+      </c>
+      <c r="CQ8">
+        <v>1200</v>
+      </c>
+      <c r="CR8">
+        <v>1150</v>
+      </c>
+      <c r="CS8">
+        <v>1100</v>
+      </c>
+      <c r="CT8">
+        <v>1050</v>
+      </c>
+      <c r="CU8">
+        <v>1000</v>
+      </c>
+      <c r="CV8">
+        <v>1050</v>
+      </c>
+      <c r="CW8">
+        <v>1100</v>
+      </c>
+      <c r="CX8">
+        <v>1150</v>
+      </c>
+      <c r="CY8">
+        <v>1200</v>
+      </c>
+      <c r="CZ8">
+        <v>1250</v>
+      </c>
+      <c r="DA8">
+        <v>1300</v>
+      </c>
+      <c r="DB8">
+        <v>1350</v>
+      </c>
+      <c r="DC8">
+        <v>1400</v>
+      </c>
+      <c r="DD8">
+        <v>1450</v>
+      </c>
+      <c r="DE8">
+        <v>1500</v>
+      </c>
+      <c r="DF8">
+        <v>1550</v>
+      </c>
+      <c r="DG8">
+        <v>1600</v>
+      </c>
+      <c r="DH8">
+        <v>1650</v>
+      </c>
+      <c r="DI8">
+        <v>1700</v>
+      </c>
+      <c r="DJ8">
+        <v>1750</v>
+      </c>
+      <c r="DK8">
+        <v>1800</v>
+      </c>
+      <c r="DL8">
+        <v>1850</v>
+      </c>
+      <c r="DM8">
+        <v>1900</v>
+      </c>
+      <c r="DN8">
+        <v>1950</v>
+      </c>
+      <c r="DO8">
+        <v>2000</v>
+      </c>
+      <c r="DP8">
+        <v>2050</v>
+      </c>
+      <c r="DQ8">
+        <v>2100</v>
+      </c>
+      <c r="DR8">
+        <v>2150</v>
+      </c>
+      <c r="DS8">
+        <v>2200</v>
+      </c>
+      <c r="DT8">
+        <v>2250</v>
+      </c>
+      <c r="DU8">
+        <v>2300</v>
+      </c>
+      <c r="DV8">
+        <v>2350</v>
+      </c>
+      <c r="DW8">
+        <v>2400</v>
+      </c>
+      <c r="DX8">
+        <v>2450</v>
+      </c>
+      <c r="DY8">
+        <v>2500</v>
+      </c>
+      <c r="DZ8">
+        <v>2550</v>
+      </c>
+      <c r="EA8">
+        <v>2600</v>
+      </c>
+      <c r="EB8">
+        <v>2650</v>
+      </c>
+      <c r="EC8">
+        <v>2700</v>
+      </c>
+      <c r="ED8">
+        <v>2750</v>
+      </c>
+      <c r="EE8">
+        <v>2800</v>
+      </c>
+      <c r="EF8">
+        <v>2850</v>
+      </c>
+      <c r="EG8">
+        <v>2900</v>
+      </c>
+      <c r="EH8">
+        <v>2950</v>
+      </c>
+      <c r="EI8">
+        <v>3000</v>
+      </c>
+      <c r="EJ8">
+        <v>3050</v>
+      </c>
+      <c r="EK8">
+        <v>3100</v>
+      </c>
+      <c r="EL8">
+        <v>3150</v>
+      </c>
+      <c r="EM8">
+        <v>3200</v>
+      </c>
+      <c r="EN8">
+        <v>3250</v>
+      </c>
+      <c r="EO8">
+        <v>3300</v>
+      </c>
+      <c r="EP8">
+        <v>3350</v>
+      </c>
+      <c r="EQ8">
+        <v>3400</v>
+      </c>
+      <c r="ER8">
+        <v>3350</v>
+      </c>
+      <c r="ES8">
+        <v>3300</v>
+      </c>
+      <c r="ET8">
+        <v>3250</v>
+      </c>
+      <c r="EU8">
+        <v>3200</v>
+      </c>
+      <c r="EV8">
+        <v>3150</v>
+      </c>
+      <c r="EW8">
+        <v>3100</v>
+      </c>
+      <c r="EX8">
+        <v>3050</v>
+      </c>
+      <c r="EY8">
+        <v>3000</v>
+      </c>
+      <c r="EZ8">
+        <v>2950</v>
+      </c>
+      <c r="FA8">
+        <v>2900</v>
+      </c>
+      <c r="FB8">
+        <v>2850</v>
+      </c>
+      <c r="FC8">
+        <v>2800</v>
+      </c>
+      <c r="FD8">
+        <v>2750</v>
+      </c>
+      <c r="FE8">
+        <v>2700</v>
+      </c>
+      <c r="FF8">
+        <v>2650</v>
+      </c>
+      <c r="FG8">
+        <v>2600</v>
+      </c>
+      <c r="FH8">
+        <v>2550</v>
+      </c>
+      <c r="FI8">
+        <v>2500</v>
+      </c>
+      <c r="FJ8">
+        <v>2450</v>
+      </c>
+      <c r="FK8">
+        <v>2400</v>
+      </c>
+      <c r="FL8">
+        <v>2350</v>
+      </c>
+      <c r="FM8">
+        <v>2300</v>
+      </c>
+      <c r="FN8">
+        <v>2250</v>
+      </c>
+      <c r="FO8">
+        <v>2200</v>
+      </c>
+      <c r="FP8">
+        <v>2150</v>
+      </c>
+      <c r="FQ8">
+        <v>2100</v>
+      </c>
+      <c r="FR8">
+        <v>2050</v>
+      </c>
+      <c r="FS8">
+        <v>2000</v>
+      </c>
+      <c r="FT8">
+        <v>1950</v>
+      </c>
+      <c r="FU8">
+        <v>1900</v>
+      </c>
+      <c r="FV8">
+        <v>1850</v>
+      </c>
+      <c r="FW8">
+        <v>1800</v>
+      </c>
+      <c r="FX8">
+        <v>1750</v>
+      </c>
+      <c r="FY8">
+        <v>1700</v>
+      </c>
+      <c r="FZ8">
+        <v>1650</v>
+      </c>
+      <c r="GA8">
+        <v>1600</v>
+      </c>
+      <c r="GB8">
+        <v>1550</v>
+      </c>
+      <c r="GC8">
+        <v>1500</v>
+      </c>
+      <c r="GD8">
+        <v>1450</v>
+      </c>
+      <c r="GE8">
+        <v>1400</v>
+      </c>
+      <c r="GF8">
+        <v>1350</v>
+      </c>
+      <c r="GG8">
+        <v>1300</v>
+      </c>
+      <c r="GH8">
+        <v>1250</v>
+      </c>
+      <c r="GI8">
+        <v>1200</v>
+      </c>
+      <c r="GJ8">
+        <v>1150</v>
+      </c>
+      <c r="GK8">
+        <v>1100</v>
+      </c>
+      <c r="GL8">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>1050</v>
+      </c>
+      <c r="E9">
+        <v>1100</v>
+      </c>
+      <c r="F9">
+        <v>1150</v>
+      </c>
+      <c r="G9">
+        <v>1200</v>
+      </c>
+      <c r="H9">
+        <v>1250</v>
+      </c>
+      <c r="I9">
+        <v>1300</v>
+      </c>
+      <c r="J9">
+        <v>1350</v>
+      </c>
+      <c r="K9">
+        <v>1400</v>
+      </c>
+      <c r="L9">
+        <v>1450</v>
+      </c>
+      <c r="M9">
+        <v>1500</v>
+      </c>
+      <c r="N9">
+        <v>1550</v>
+      </c>
+      <c r="O9">
+        <v>1600</v>
+      </c>
+      <c r="P9">
+        <v>1650</v>
+      </c>
+      <c r="Q9">
+        <v>1700</v>
+      </c>
+      <c r="R9">
+        <v>1750</v>
+      </c>
+      <c r="S9">
+        <v>1800</v>
+      </c>
+      <c r="T9">
+        <v>1850</v>
+      </c>
+      <c r="U9">
+        <v>1900</v>
+      </c>
+      <c r="V9">
+        <v>1950</v>
+      </c>
+      <c r="W9">
+        <v>2000</v>
+      </c>
+      <c r="X9">
+        <v>2050</v>
+      </c>
+      <c r="Y9">
+        <v>2100</v>
+      </c>
+      <c r="Z9">
+        <v>2150</v>
+      </c>
+      <c r="AA9">
+        <v>2200</v>
+      </c>
+      <c r="AB9">
+        <v>2250</v>
+      </c>
+      <c r="AC9">
+        <v>2300</v>
+      </c>
+      <c r="AD9">
+        <v>2350</v>
+      </c>
+      <c r="AE9">
+        <v>2400</v>
+      </c>
+      <c r="AF9">
+        <v>2450</v>
+      </c>
+      <c r="AG9">
+        <v>2500</v>
+      </c>
+      <c r="AH9">
+        <v>2550</v>
+      </c>
+      <c r="AI9">
+        <v>2600</v>
+      </c>
+      <c r="AJ9">
+        <v>2650</v>
+      </c>
+      <c r="AK9">
+        <v>2700</v>
+      </c>
+      <c r="AL9">
+        <v>2750</v>
+      </c>
+      <c r="AM9">
+        <v>2800</v>
+      </c>
+      <c r="AN9">
+        <v>2850</v>
+      </c>
+      <c r="AO9">
+        <v>2900</v>
+      </c>
+      <c r="AP9">
+        <v>2950</v>
+      </c>
+      <c r="AQ9">
+        <v>3000</v>
+      </c>
+      <c r="AR9">
+        <v>3050</v>
+      </c>
+      <c r="AS9">
+        <v>3100</v>
+      </c>
+      <c r="AT9">
+        <v>3150</v>
+      </c>
+      <c r="AU9">
+        <v>3200</v>
+      </c>
+      <c r="AV9">
+        <v>3250</v>
+      </c>
+      <c r="AW9">
+        <v>3300</v>
+      </c>
+      <c r="AX9">
+        <v>3350</v>
+      </c>
+      <c r="AY9">
+        <v>3400</v>
+      </c>
+      <c r="AZ9">
+        <v>3350</v>
+      </c>
+      <c r="BA9">
+        <v>3300</v>
+      </c>
+      <c r="BB9">
+        <v>3250</v>
+      </c>
+      <c r="BC9">
+        <v>3200</v>
+      </c>
+      <c r="BD9">
+        <v>3150</v>
+      </c>
+      <c r="BE9">
+        <v>3100</v>
+      </c>
+      <c r="BF9">
+        <v>3050</v>
+      </c>
+      <c r="BG9">
+        <v>3000</v>
+      </c>
+      <c r="BH9">
+        <v>2950</v>
+      </c>
+      <c r="BI9">
+        <v>2900</v>
+      </c>
+      <c r="BJ9">
+        <v>2850</v>
+      </c>
+      <c r="BK9">
+        <v>2800</v>
+      </c>
+      <c r="BL9">
+        <v>2750</v>
+      </c>
+      <c r="BM9">
+        <v>2700</v>
+      </c>
+      <c r="BN9">
+        <v>2650</v>
+      </c>
+      <c r="BO9">
+        <v>2600</v>
+      </c>
+      <c r="BP9">
+        <v>2550</v>
+      </c>
+      <c r="BQ9">
+        <v>2500</v>
+      </c>
+      <c r="BR9">
+        <v>2450</v>
+      </c>
+      <c r="BS9">
+        <v>2400</v>
+      </c>
+      <c r="BT9">
+        <v>2350</v>
+      </c>
+      <c r="BU9">
+        <v>2300</v>
+      </c>
+      <c r="BV9">
+        <v>2250</v>
+      </c>
+      <c r="BW9">
+        <v>2200</v>
+      </c>
+      <c r="BX9">
+        <v>2150</v>
+      </c>
+      <c r="BY9">
+        <v>2100</v>
+      </c>
+      <c r="BZ9">
+        <v>2050</v>
+      </c>
+      <c r="CA9">
+        <v>2000</v>
+      </c>
+      <c r="CB9">
+        <v>1950</v>
+      </c>
+      <c r="CC9">
+        <v>1900</v>
+      </c>
+      <c r="CD9">
+        <v>1850</v>
+      </c>
+      <c r="CE9">
+        <v>1800</v>
+      </c>
+      <c r="CF9">
+        <v>1750</v>
+      </c>
+      <c r="CG9">
+        <v>1700</v>
+      </c>
+      <c r="CH9">
+        <v>1650</v>
+      </c>
+      <c r="CI9">
+        <v>1600</v>
+      </c>
+      <c r="CJ9">
+        <v>1550</v>
+      </c>
+      <c r="CK9">
+        <v>1500</v>
+      </c>
+      <c r="CL9">
+        <v>1450</v>
+      </c>
+      <c r="CM9">
+        <v>1400</v>
+      </c>
+      <c r="CN9">
+        <v>1350</v>
+      </c>
+      <c r="CO9">
+        <v>1300</v>
+      </c>
+      <c r="CP9">
+        <v>1250</v>
+      </c>
+      <c r="CQ9">
+        <v>1200</v>
+      </c>
+      <c r="CR9">
+        <v>1150</v>
+      </c>
+      <c r="CS9">
+        <v>1100</v>
+      </c>
+      <c r="CT9">
+        <v>1050</v>
+      </c>
+      <c r="CU9">
+        <v>1000</v>
+      </c>
+      <c r="CV9">
+        <v>1050</v>
+      </c>
+      <c r="CW9">
+        <v>1100</v>
+      </c>
+      <c r="CX9">
+        <v>1150</v>
+      </c>
+      <c r="CY9">
+        <v>1200</v>
+      </c>
+      <c r="CZ9">
+        <v>1250</v>
+      </c>
+      <c r="DA9">
+        <v>1300</v>
+      </c>
+      <c r="DB9">
+        <v>1350</v>
+      </c>
+      <c r="DC9">
+        <v>1400</v>
+      </c>
+      <c r="DD9">
+        <v>1450</v>
+      </c>
+      <c r="DE9">
+        <v>1500</v>
+      </c>
+      <c r="DF9">
+        <v>1550</v>
+      </c>
+      <c r="DG9">
+        <v>1600</v>
+      </c>
+      <c r="DH9">
+        <v>1650</v>
+      </c>
+      <c r="DI9">
+        <v>1700</v>
+      </c>
+      <c r="DJ9">
+        <v>1750</v>
+      </c>
+      <c r="DK9">
+        <v>1800</v>
+      </c>
+      <c r="DL9">
+        <v>1850</v>
+      </c>
+      <c r="DM9">
+        <v>1900</v>
+      </c>
+      <c r="DN9">
+        <v>1950</v>
+      </c>
+      <c r="DO9">
+        <v>2000</v>
+      </c>
+      <c r="DP9">
+        <v>2050</v>
+      </c>
+      <c r="DQ9">
+        <v>2100</v>
+      </c>
+      <c r="DR9">
+        <v>2150</v>
+      </c>
+      <c r="DS9">
+        <v>2200</v>
+      </c>
+      <c r="DT9">
+        <v>2250</v>
+      </c>
+      <c r="DU9">
+        <v>2300</v>
+      </c>
+      <c r="DV9">
+        <v>2350</v>
+      </c>
+      <c r="DW9">
+        <v>2400</v>
+      </c>
+      <c r="DX9">
+        <v>2450</v>
+      </c>
+      <c r="DY9">
+        <v>2500</v>
+      </c>
+      <c r="DZ9">
+        <v>2550</v>
+      </c>
+      <c r="EA9">
+        <v>2600</v>
+      </c>
+      <c r="EB9">
+        <v>2650</v>
+      </c>
+      <c r="EC9">
+        <v>2700</v>
+      </c>
+      <c r="ED9">
+        <v>2750</v>
+      </c>
+      <c r="EE9">
+        <v>2800</v>
+      </c>
+      <c r="EF9">
+        <v>2850</v>
+      </c>
+      <c r="EG9">
+        <v>2900</v>
+      </c>
+      <c r="EH9">
+        <v>2950</v>
+      </c>
+      <c r="EI9">
+        <v>3000</v>
+      </c>
+      <c r="EJ9">
+        <v>3050</v>
+      </c>
+      <c r="EK9">
+        <v>3100</v>
+      </c>
+      <c r="EL9">
+        <v>3150</v>
+      </c>
+      <c r="EM9">
+        <v>3200</v>
+      </c>
+      <c r="EN9">
+        <v>3250</v>
+      </c>
+      <c r="EO9">
+        <v>3300</v>
+      </c>
+      <c r="EP9">
+        <v>3350</v>
+      </c>
+      <c r="EQ9">
+        <v>3400</v>
+      </c>
+      <c r="ER9">
+        <v>3350</v>
+      </c>
+      <c r="ES9">
+        <v>3300</v>
+      </c>
+      <c r="ET9">
+        <v>3250</v>
+      </c>
+      <c r="EU9">
+        <v>3200</v>
+      </c>
+      <c r="EV9">
+        <v>3150</v>
+      </c>
+      <c r="EW9">
+        <v>3100</v>
+      </c>
+      <c r="EX9">
+        <v>3050</v>
+      </c>
+      <c r="EY9">
+        <v>3000</v>
+      </c>
+      <c r="EZ9">
+        <v>2950</v>
+      </c>
+      <c r="FA9">
+        <v>2900</v>
+      </c>
+      <c r="FB9">
+        <v>2850</v>
+      </c>
+      <c r="FC9">
+        <v>2800</v>
+      </c>
+      <c r="FD9">
+        <v>2750</v>
+      </c>
+      <c r="FE9">
+        <v>2700</v>
+      </c>
+      <c r="FF9">
+        <v>2650</v>
+      </c>
+      <c r="FG9">
+        <v>2600</v>
+      </c>
+      <c r="FH9">
+        <v>2550</v>
+      </c>
+      <c r="FI9">
+        <v>2500</v>
+      </c>
+      <c r="FJ9">
+        <v>2450</v>
+      </c>
+      <c r="FK9">
+        <v>2400</v>
+      </c>
+      <c r="FL9">
+        <v>2350</v>
+      </c>
+      <c r="FM9">
+        <v>2300</v>
+      </c>
+      <c r="FN9">
+        <v>2250</v>
+      </c>
+      <c r="FO9">
+        <v>2200</v>
+      </c>
+      <c r="FP9">
+        <v>2150</v>
+      </c>
+      <c r="FQ9">
+        <v>2100</v>
+      </c>
+      <c r="FR9">
+        <v>2050</v>
+      </c>
+      <c r="FS9">
+        <v>2000</v>
+      </c>
+      <c r="FT9">
+        <v>1950</v>
+      </c>
+      <c r="FU9">
+        <v>1900</v>
+      </c>
+      <c r="FV9">
+        <v>1850</v>
+      </c>
+      <c r="FW9">
+        <v>1800</v>
+      </c>
+      <c r="FX9">
+        <v>1750</v>
+      </c>
+      <c r="FY9">
+        <v>1700</v>
+      </c>
+      <c r="FZ9">
+        <v>1650</v>
+      </c>
+      <c r="GA9">
+        <v>1600</v>
+      </c>
+      <c r="GB9">
+        <v>1550</v>
+      </c>
+      <c r="GC9">
+        <v>1500</v>
+      </c>
+      <c r="GD9">
+        <v>1450</v>
+      </c>
+      <c r="GE9">
+        <v>1400</v>
+      </c>
+      <c r="GF9">
+        <v>1350</v>
+      </c>
+      <c r="GG9">
+        <v>1300</v>
+      </c>
+      <c r="GH9">
+        <v>1250</v>
+      </c>
+      <c r="GI9">
+        <v>1200</v>
+      </c>
+      <c r="GJ9">
+        <v>1150</v>
+      </c>
+      <c r="GK9">
+        <v>1100</v>
+      </c>
+      <c r="GL9">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:194" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>1050</v>
+      </c>
+      <c r="E10">
+        <v>1100</v>
+      </c>
+      <c r="F10">
+        <v>1150</v>
+      </c>
+      <c r="G10">
+        <v>1200</v>
+      </c>
+      <c r="H10">
+        <v>1250</v>
+      </c>
+      <c r="I10">
+        <v>1300</v>
+      </c>
+      <c r="J10">
+        <v>1350</v>
+      </c>
+      <c r="K10">
+        <v>1400</v>
+      </c>
+      <c r="L10">
+        <v>1450</v>
+      </c>
+      <c r="M10">
+        <v>1500</v>
+      </c>
+      <c r="N10">
+        <v>1550</v>
+      </c>
+      <c r="O10">
+        <v>1600</v>
+      </c>
+      <c r="P10">
+        <v>1650</v>
+      </c>
+      <c r="Q10">
+        <v>1700</v>
+      </c>
+      <c r="R10">
+        <v>1750</v>
+      </c>
+      <c r="S10">
+        <v>1800</v>
+      </c>
+      <c r="T10">
+        <v>1850</v>
+      </c>
+      <c r="U10">
+        <v>1900</v>
+      </c>
+      <c r="V10">
+        <v>1950</v>
+      </c>
+      <c r="W10">
+        <v>2000</v>
+      </c>
+      <c r="X10">
+        <v>2050</v>
+      </c>
+      <c r="Y10">
+        <v>2100</v>
+      </c>
+      <c r="Z10">
+        <v>2150</v>
+      </c>
+      <c r="AA10">
+        <v>2200</v>
+      </c>
+      <c r="AB10">
+        <v>2250</v>
+      </c>
+      <c r="AC10">
+        <v>2300</v>
+      </c>
+      <c r="AD10">
+        <v>2350</v>
+      </c>
+      <c r="AE10">
+        <v>2400</v>
+      </c>
+      <c r="AF10">
+        <v>2450</v>
+      </c>
+      <c r="AG10">
+        <v>2500</v>
+      </c>
+      <c r="AH10">
+        <v>2550</v>
+      </c>
+      <c r="AI10">
+        <v>2600</v>
+      </c>
+      <c r="AJ10">
+        <v>2650</v>
+      </c>
+      <c r="AK10">
+        <v>2700</v>
+      </c>
+      <c r="AL10">
+        <v>2750</v>
+      </c>
+      <c r="AM10">
+        <v>2800</v>
+      </c>
+      <c r="AN10">
+        <v>2850</v>
+      </c>
+      <c r="AO10">
+        <v>2900</v>
+      </c>
+      <c r="AP10">
+        <v>2950</v>
+      </c>
+      <c r="AQ10">
+        <v>3000</v>
+      </c>
+      <c r="AR10">
+        <v>3050</v>
+      </c>
+      <c r="AS10">
+        <v>3100</v>
+      </c>
+      <c r="AT10">
+        <v>3150</v>
+      </c>
+      <c r="AU10">
+        <v>3200</v>
+      </c>
+      <c r="AV10">
+        <v>3250</v>
+      </c>
+      <c r="AW10">
+        <v>3300</v>
+      </c>
+      <c r="AX10">
+        <v>3350</v>
+      </c>
+      <c r="AY10">
+        <v>3400</v>
+      </c>
+      <c r="AZ10">
+        <v>3350</v>
+      </c>
+      <c r="BA10">
+        <v>3300</v>
+      </c>
+      <c r="BB10">
+        <v>3250</v>
+      </c>
+      <c r="BC10">
+        <v>3200</v>
+      </c>
+      <c r="BD10">
+        <v>3150</v>
+      </c>
+      <c r="BE10">
+        <v>3100</v>
+      </c>
+      <c r="BF10">
+        <v>3050</v>
+      </c>
+      <c r="BG10">
+        <v>3000</v>
+      </c>
+      <c r="BH10">
+        <v>2950</v>
+      </c>
+      <c r="BI10">
+        <v>2900</v>
+      </c>
+      <c r="BJ10">
+        <v>2850</v>
+      </c>
+      <c r="BK10">
+        <v>2800</v>
+      </c>
+      <c r="BL10">
+        <v>2750</v>
+      </c>
+      <c r="BM10">
+        <v>2700</v>
+      </c>
+      <c r="BN10">
+        <v>2650</v>
+      </c>
+      <c r="BO10">
+        <v>2600</v>
+      </c>
+      <c r="BP10">
+        <v>2550</v>
+      </c>
+      <c r="BQ10">
+        <v>2500</v>
+      </c>
+      <c r="BR10">
+        <v>2450</v>
+      </c>
+      <c r="BS10">
+        <v>2400</v>
+      </c>
+      <c r="BT10">
+        <v>2350</v>
+      </c>
+      <c r="BU10">
+        <v>2300</v>
+      </c>
+      <c r="BV10">
+        <v>2250</v>
+      </c>
+      <c r="BW10">
+        <v>2200</v>
+      </c>
+      <c r="BX10">
+        <v>2150</v>
+      </c>
+      <c r="BY10">
+        <v>2100</v>
+      </c>
+      <c r="BZ10">
+        <v>2050</v>
+      </c>
+      <c r="CA10">
+        <v>2000</v>
+      </c>
+      <c r="CB10">
+        <v>1950</v>
+      </c>
+      <c r="CC10">
+        <v>1900</v>
+      </c>
+      <c r="CD10">
+        <v>1850</v>
+      </c>
+      <c r="CE10">
+        <v>1800</v>
+      </c>
+      <c r="CF10">
+        <v>1750</v>
+      </c>
+      <c r="CG10">
+        <v>1700</v>
+      </c>
+      <c r="CH10">
+        <v>1650</v>
+      </c>
+      <c r="CI10">
+        <v>1600</v>
+      </c>
+      <c r="CJ10">
+        <v>1550</v>
+      </c>
+      <c r="CK10">
+        <v>1500</v>
+      </c>
+      <c r="CL10">
+        <v>1450</v>
+      </c>
+      <c r="CM10">
+        <v>1400</v>
+      </c>
+      <c r="CN10">
+        <v>1350</v>
+      </c>
+      <c r="CO10">
+        <v>1300</v>
+      </c>
+      <c r="CP10">
+        <v>1250</v>
+      </c>
+      <c r="CQ10">
+        <v>1200</v>
+      </c>
+      <c r="CR10">
+        <v>1150</v>
+      </c>
+      <c r="CS10">
+        <v>1100</v>
+      </c>
+      <c r="CT10">
+        <v>1050</v>
+      </c>
+      <c r="CU10">
+        <v>1000</v>
+      </c>
+      <c r="CV10">
+        <v>1050</v>
+      </c>
+      <c r="CW10">
+        <v>1100</v>
+      </c>
+      <c r="CX10">
+        <v>1150</v>
+      </c>
+      <c r="CY10">
+        <v>1200</v>
+      </c>
+      <c r="CZ10">
+        <v>1250</v>
+      </c>
+      <c r="DA10">
+        <v>1300</v>
+      </c>
+      <c r="DB10">
+        <v>1350</v>
+      </c>
+      <c r="DC10">
+        <v>1400</v>
+      </c>
+      <c r="DD10">
+        <v>1450</v>
+      </c>
+      <c r="DE10">
+        <v>1500</v>
+      </c>
+      <c r="DF10">
+        <v>1550</v>
+      </c>
+      <c r="DG10">
+        <v>1600</v>
+      </c>
+      <c r="DH10">
+        <v>1650</v>
+      </c>
+      <c r="DI10">
+        <v>1700</v>
+      </c>
+      <c r="DJ10">
+        <v>1750</v>
+      </c>
+      <c r="DK10">
+        <v>1800</v>
+      </c>
+      <c r="DL10">
+        <v>1850</v>
+      </c>
+      <c r="DM10">
+        <v>1900</v>
+      </c>
+      <c r="DN10">
+        <v>1950</v>
+      </c>
+      <c r="DO10">
+        <v>2000</v>
+      </c>
+      <c r="DP10">
+        <v>2050</v>
+      </c>
+      <c r="DQ10">
+        <v>2100</v>
+      </c>
+      <c r="DR10">
+        <v>2150</v>
+      </c>
+      <c r="DS10">
+        <v>2200</v>
+      </c>
+      <c r="DT10">
+        <v>2250</v>
+      </c>
+      <c r="DU10">
+        <v>2300</v>
+      </c>
+      <c r="DV10">
+        <v>2350</v>
+      </c>
+      <c r="DW10">
+        <v>2400</v>
+      </c>
+      <c r="DX10">
+        <v>2450</v>
+      </c>
+      <c r="DY10">
+        <v>2500</v>
+      </c>
+      <c r="DZ10">
+        <v>2550</v>
+      </c>
+      <c r="EA10">
+        <v>2600</v>
+      </c>
+      <c r="EB10">
+        <v>2650</v>
+      </c>
+      <c r="EC10">
+        <v>2700</v>
+      </c>
+      <c r="ED10">
+        <v>2750</v>
+      </c>
+      <c r="EE10">
+        <v>2800</v>
+      </c>
+      <c r="EF10">
+        <v>2850</v>
+      </c>
+      <c r="EG10">
+        <v>2900</v>
+      </c>
+      <c r="EH10">
+        <v>2950</v>
+      </c>
+      <c r="EI10">
+        <v>3000</v>
+      </c>
+      <c r="EJ10">
+        <v>3050</v>
+      </c>
+      <c r="EK10">
+        <v>3100</v>
+      </c>
+      <c r="EL10">
+        <v>3150</v>
+      </c>
+      <c r="EM10">
+        <v>3200</v>
+      </c>
+      <c r="EN10">
+        <v>3250</v>
+      </c>
+      <c r="EO10">
+        <v>3300</v>
+      </c>
+      <c r="EP10">
+        <v>3350</v>
+      </c>
+      <c r="EQ10">
+        <v>3400</v>
+      </c>
+      <c r="ER10">
+        <v>3350</v>
+      </c>
+      <c r="ES10">
+        <v>3300</v>
+      </c>
+      <c r="ET10">
+        <v>3250</v>
+      </c>
+      <c r="EU10">
+        <v>3200</v>
+      </c>
+      <c r="EV10">
+        <v>3150</v>
+      </c>
+      <c r="EW10">
+        <v>3100</v>
+      </c>
+      <c r="EX10">
+        <v>3050</v>
+      </c>
+      <c r="EY10">
+        <v>3000</v>
+      </c>
+      <c r="EZ10">
+        <v>2950</v>
+      </c>
+      <c r="FA10">
+        <v>2900</v>
+      </c>
+      <c r="FB10">
+        <v>2850</v>
+      </c>
+      <c r="FC10">
+        <v>2800</v>
+      </c>
+      <c r="FD10">
+        <v>2750</v>
+      </c>
+      <c r="FE10">
+        <v>2700</v>
+      </c>
+      <c r="FF10">
+        <v>2650</v>
+      </c>
+      <c r="FG10">
+        <v>2600</v>
+      </c>
+      <c r="FH10">
+        <v>2550</v>
+      </c>
+      <c r="FI10">
+        <v>2500</v>
+      </c>
+      <c r="FJ10">
+        <v>2450</v>
+      </c>
+      <c r="FK10">
+        <v>2400</v>
+      </c>
+      <c r="FL10">
+        <v>2350</v>
+      </c>
+      <c r="FM10">
+        <v>2300</v>
+      </c>
+      <c r="FN10">
+        <v>2250</v>
+      </c>
+      <c r="FO10">
+        <v>2200</v>
+      </c>
+      <c r="FP10">
+        <v>2150</v>
+      </c>
+      <c r="FQ10">
+        <v>2100</v>
+      </c>
+      <c r="FR10">
+        <v>2050</v>
+      </c>
+      <c r="FS10">
+        <v>2000</v>
+      </c>
+      <c r="FT10">
+        <v>1950</v>
+      </c>
+      <c r="FU10">
+        <v>1900</v>
+      </c>
+      <c r="FV10">
+        <v>1850</v>
+      </c>
+      <c r="FW10">
+        <v>1800</v>
+      </c>
+      <c r="FX10">
+        <v>1750</v>
+      </c>
+      <c r="FY10">
+        <v>1700</v>
+      </c>
+      <c r="FZ10">
+        <v>1650</v>
+      </c>
+      <c r="GA10">
+        <v>1600</v>
+      </c>
+      <c r="GB10">
+        <v>1550</v>
+      </c>
+      <c r="GC10">
+        <v>1500</v>
+      </c>
+      <c r="GD10">
+        <v>1450</v>
+      </c>
+      <c r="GE10">
+        <v>1400</v>
+      </c>
+      <c r="GF10">
+        <v>1350</v>
+      </c>
+      <c r="GG10">
+        <v>1300</v>
+      </c>
+      <c r="GH10">
+        <v>1250</v>
+      </c>
+      <c r="GI10">
+        <v>1200</v>
+      </c>
+      <c r="GJ10">
+        <v>1150</v>
+      </c>
+      <c r="GK10">
+        <v>1100</v>
+      </c>
+      <c r="GL10">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>